--- a/Kite.Console/bin/Debug/net6.0/Result.xlsx
+++ b/Kite.Console/bin/Debug/net6.0/Result.xlsx
@@ -4340,7 +4340,7 @@
         <v>28</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">

--- a/Kite.Console/bin/Debug/net6.0/Result.xlsx
+++ b/Kite.Console/bin/Debug/net6.0/Result.xlsx
@@ -3835,12 +3835,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -3865,256 +3875,257 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4273,7 +4284,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3">
@@ -4415,7 +4426,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B5">
@@ -4770,7 +4781,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B10">
@@ -5125,7 +5136,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B15">
@@ -5480,7 +5491,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B20">
@@ -5835,7 +5846,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B25">
@@ -6119,7 +6130,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B29">
@@ -6474,7 +6485,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B34">
@@ -7042,7 +7053,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B42">
@@ -7397,7 +7408,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B47">
@@ -7752,7 +7763,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B52">
@@ -8107,7 +8118,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B57">
@@ -8462,7 +8473,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B62">
@@ -8817,7 +8828,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B67">
@@ -9172,7 +9183,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B72">
@@ -9527,7 +9538,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B77">
@@ -9882,7 +9893,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="17" t="s">
         <v>110</v>
       </c>
       <c r="B82">
@@ -10237,7 +10248,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="18" t="s">
         <v>115</v>
       </c>
       <c r="B87">
@@ -10592,7 +10603,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="19" t="s">
         <v>120</v>
       </c>
       <c r="B92">
@@ -10947,7 +10958,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="20" t="s">
         <v>125</v>
       </c>
       <c r="B97">
@@ -11302,7 +11313,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="21" t="s">
         <v>130</v>
       </c>
       <c r="B102">
@@ -11657,7 +11668,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="21" t="s">
+      <c r="A107" s="22" t="s">
         <v>135</v>
       </c>
       <c r="B107">
@@ -11941,7 +11952,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="23" t="s">
         <v>139</v>
       </c>
       <c r="B111">
@@ -12296,7 +12307,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="23" t="s">
+      <c r="A116" s="24" t="s">
         <v>144</v>
       </c>
       <c r="B116">
@@ -12651,7 +12662,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="24" t="s">
+      <c r="A121" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B121">
@@ -12864,7 +12875,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="25" t="s">
+      <c r="A124" s="26" t="s">
         <v>152</v>
       </c>
       <c r="B124">
@@ -13219,7 +13230,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="26" t="s">
+      <c r="A129" s="27" t="s">
         <v>157</v>
       </c>
       <c r="B129">
@@ -13574,7 +13585,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="27" t="s">
+      <c r="A134" s="28" t="s">
         <v>162</v>
       </c>
       <c r="B134">
@@ -13929,7 +13940,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="28" t="s">
+      <c r="A139" s="29" t="s">
         <v>167</v>
       </c>
       <c r="B139">
@@ -14213,7 +14224,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="29" t="s">
+      <c r="A143" s="30" t="s">
         <v>171</v>
       </c>
       <c r="B143">
@@ -14568,7 +14579,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="30" t="s">
+      <c r="A148" s="31" t="s">
         <v>176</v>
       </c>
       <c r="B148">
@@ -14852,7 +14863,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="31" t="s">
+      <c r="A152" s="32" t="s">
         <v>180</v>
       </c>
       <c r="B152">
@@ -15207,7 +15218,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="32" t="s">
+      <c r="A157" s="33" t="s">
         <v>185</v>
       </c>
       <c r="B157">
@@ -15562,7 +15573,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="33" t="s">
+      <c r="A162" s="34" t="s">
         <v>190</v>
       </c>
       <c r="B162">
@@ -15917,7 +15928,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="34" t="s">
+      <c r="A167" s="35" t="s">
         <v>195</v>
       </c>
       <c r="B167">
@@ -16272,7 +16283,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="35" t="s">
+      <c r="A172" s="36" t="s">
         <v>200</v>
       </c>
       <c r="B172">
@@ -16556,7 +16567,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="36" t="s">
+      <c r="A176" s="37" t="s">
         <v>204</v>
       </c>
       <c r="B176">
@@ -16911,7 +16922,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="37" t="s">
+      <c r="A181" s="38" t="s">
         <v>209</v>
       </c>
       <c r="B181">
@@ -17266,7 +17277,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="38" t="s">
+      <c r="A186" s="39" t="s">
         <v>214</v>
       </c>
       <c r="B186">
@@ -17621,7 +17632,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="39" t="s">
+      <c r="A191" s="40" t="s">
         <v>219</v>
       </c>
       <c r="B191">
@@ -17976,7 +17987,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="40" t="s">
+      <c r="A196" s="41" t="s">
         <v>224</v>
       </c>
       <c r="B196">
@@ -18331,7 +18342,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="41" t="s">
+      <c r="A201" s="42" t="s">
         <v>229</v>
       </c>
       <c r="B201">
@@ -18686,7 +18697,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="42" t="s">
+      <c r="A206" s="43" t="s">
         <v>234</v>
       </c>
       <c r="B206">
@@ -19041,7 +19052,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="43" t="s">
+      <c r="A211" s="44" t="s">
         <v>239</v>
       </c>
       <c r="B211">
@@ -19396,7 +19407,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="44" t="s">
+      <c r="A216" s="45" t="s">
         <v>244</v>
       </c>
       <c r="B216">
@@ -19751,7 +19762,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="45" t="s">
+      <c r="A221" s="46" t="s">
         <v>249</v>
       </c>
       <c r="B221">
@@ -20035,7 +20046,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="46" t="s">
+      <c r="A225" s="47" t="s">
         <v>253</v>
       </c>
       <c r="B225">
@@ -20390,7 +20401,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="47" t="s">
+      <c r="A230" s="48" t="s">
         <v>258</v>
       </c>
       <c r="B230">
@@ -20674,7 +20685,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="48" t="s">
+      <c r="A234" s="49" t="s">
         <v>262</v>
       </c>
       <c r="B234">
@@ -21029,7 +21040,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="49" t="s">
+      <c r="A239" s="50" t="s">
         <v>267</v>
       </c>
       <c r="B239">
@@ -21384,7 +21395,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="50" t="s">
+      <c r="A244" s="51" t="s">
         <v>272</v>
       </c>
       <c r="B244">
@@ -21668,7 +21679,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="51" t="s">
+      <c r="A248" s="52" t="s">
         <v>276</v>
       </c>
       <c r="B248">
@@ -22023,7 +22034,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="52" t="s">
+      <c r="A253" s="53" t="s">
         <v>281</v>
       </c>
       <c r="B253">
@@ -22378,7 +22389,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="53" t="s">
+      <c r="A258" s="54" t="s">
         <v>286</v>
       </c>
       <c r="B258">
@@ -22733,7 +22744,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="54" t="s">
+      <c r="A263" s="55" t="s">
         <v>291</v>
       </c>
       <c r="B263">
@@ -23088,7 +23099,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="55" t="s">
+      <c r="A268" s="56" t="s">
         <v>296</v>
       </c>
       <c r="B268">
@@ -23372,7 +23383,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="56" t="s">
+      <c r="A272" s="57" t="s">
         <v>300</v>
       </c>
       <c r="B272">
@@ -23727,7 +23738,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="57" t="s">
+      <c r="A277" s="58" t="s">
         <v>305</v>
       </c>
       <c r="B277">
@@ -24082,7 +24093,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="58" t="s">
+      <c r="A282" s="59" t="s">
         <v>310</v>
       </c>
       <c r="B282">
@@ -24366,7 +24377,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="59" t="s">
+      <c r="A286" s="60" t="s">
         <v>314</v>
       </c>
       <c r="B286">
@@ -24721,7 +24732,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="60" t="s">
+      <c r="A291" s="61" t="s">
         <v>319</v>
       </c>
       <c r="B291">
@@ -25076,7 +25087,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="61" t="s">
+      <c r="A296" s="62" t="s">
         <v>324</v>
       </c>
       <c r="B296">
@@ -25431,7 +25442,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="62" t="s">
+      <c r="A301" s="63" t="s">
         <v>329</v>
       </c>
       <c r="B301">
@@ -25715,7 +25726,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="63" t="s">
+      <c r="A305" s="64" t="s">
         <v>333</v>
       </c>
       <c r="B305">
@@ -26070,7 +26081,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="64" t="s">
+      <c r="A310" s="65" t="s">
         <v>338</v>
       </c>
       <c r="B310">
@@ -26425,7 +26436,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="65" t="s">
+      <c r="A315" s="66" t="s">
         <v>343</v>
       </c>
       <c r="B315">
@@ -26780,7 +26791,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="66" t="s">
+      <c r="A320" s="67" t="s">
         <v>348</v>
       </c>
       <c r="B320">
@@ -27135,7 +27146,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="67" t="s">
+      <c r="A325" s="68" t="s">
         <v>353</v>
       </c>
       <c r="B325">
@@ -27490,7 +27501,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="68" t="s">
+      <c r="A330" s="69" t="s">
         <v>358</v>
       </c>
       <c r="B330">
@@ -27845,7 +27856,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="69" t="s">
+      <c r="A335" s="70" t="s">
         <v>363</v>
       </c>
       <c r="B335">
@@ -28200,7 +28211,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="70" t="s">
+      <c r="A340" s="71" t="s">
         <v>368</v>
       </c>
       <c r="B340">
@@ -28555,7 +28566,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="71" t="s">
+      <c r="A345" s="72" t="s">
         <v>373</v>
       </c>
       <c r="B345">
@@ -28910,7 +28921,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="72" t="s">
+      <c r="A350" s="73" t="s">
         <v>378</v>
       </c>
       <c r="B350">
@@ -29194,7 +29205,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="73" t="s">
+      <c r="A354" s="74" t="s">
         <v>382</v>
       </c>
       <c r="B354">
@@ -29549,7 +29560,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="74" t="s">
+      <c r="A359" s="75" t="s">
         <v>387</v>
       </c>
       <c r="B359">
@@ -29904,7 +29915,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="75" t="s">
+      <c r="A364" s="76" t="s">
         <v>392</v>
       </c>
       <c r="B364">
@@ -30188,7 +30199,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="76" t="s">
+      <c r="A368" s="77" t="s">
         <v>396</v>
       </c>
       <c r="B368">
@@ -30472,7 +30483,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="77" t="s">
+      <c r="A372" s="78" t="s">
         <v>400</v>
       </c>
       <c r="B372">
@@ -30827,7 +30838,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="78" t="s">
+      <c r="A377" s="79" t="s">
         <v>405</v>
       </c>
       <c r="B377">
@@ -31395,7 +31406,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="79" t="s">
+      <c r="A385" s="80" t="s">
         <v>413</v>
       </c>
       <c r="B385">
@@ -31750,7 +31761,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="80" t="s">
+      <c r="A390" s="81" t="s">
         <v>418</v>
       </c>
       <c r="B390">
@@ -32034,7 +32045,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="81" t="s">
+      <c r="A394" s="82" t="s">
         <v>422</v>
       </c>
       <c r="B394">
@@ -32389,7 +32400,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="82" t="s">
+      <c r="A399" s="83" t="s">
         <v>427</v>
       </c>
       <c r="B399">
@@ -32744,7 +32755,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="83" t="s">
+      <c r="A404" s="84" t="s">
         <v>432</v>
       </c>
       <c r="B404">
@@ -33099,7 +33110,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="84" t="s">
+      <c r="A409" s="85" t="s">
         <v>437</v>
       </c>
       <c r="B409">
@@ -33454,7 +33465,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="85" t="s">
+      <c r="A414" s="86" t="s">
         <v>442</v>
       </c>
       <c r="B414">
@@ -33809,7 +33820,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="86" t="s">
+      <c r="A419" s="87" t="s">
         <v>447</v>
       </c>
       <c r="B419">
@@ -34093,7 +34104,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="87" t="s">
+      <c r="A423" s="88" t="s">
         <v>451</v>
       </c>
       <c r="B423">
@@ -34448,7 +34459,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="88" t="s">
+      <c r="A428" s="89" t="s">
         <v>456</v>
       </c>
       <c r="B428">
@@ -34803,7 +34814,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="89" t="s">
+      <c r="A433" s="90" t="s">
         <v>461</v>
       </c>
       <c r="B433">
@@ -35158,7 +35169,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="90" t="s">
+      <c r="A438" s="91" t="s">
         <v>466</v>
       </c>
       <c r="B438">
@@ -35513,7 +35524,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="91" t="s">
+      <c r="A443" s="92" t="s">
         <v>471</v>
       </c>
       <c r="B443">
@@ -35797,7 +35808,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="92" t="s">
+      <c r="A447" s="93" t="s">
         <v>475</v>
       </c>
       <c r="B447">
@@ -36152,7 +36163,7 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="93" t="s">
+      <c r="A452" s="94" t="s">
         <v>480</v>
       </c>
       <c r="B452">
@@ -36507,7 +36518,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="94" t="s">
+      <c r="A457" s="95" t="s">
         <v>485</v>
       </c>
       <c r="B457">
@@ -37146,7 +37157,7 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="95" t="s">
+      <c r="A466" s="96" t="s">
         <v>494</v>
       </c>
       <c r="B466">
@@ -37856,7 +37867,7 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="96" t="s">
+      <c r="A476" s="97" t="s">
         <v>504</v>
       </c>
       <c r="B476">
@@ -38211,7 +38222,7 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="97" t="s">
+      <c r="A481" s="98" t="s">
         <v>509</v>
       </c>
       <c r="B481">
@@ -38566,7 +38577,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="98" t="s">
+      <c r="A486" s="99" t="s">
         <v>514</v>
       </c>
       <c r="B486">
@@ -38921,7 +38932,7 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="99" t="s">
+      <c r="A491" s="100" t="s">
         <v>519</v>
       </c>
       <c r="B491">
@@ -39276,7 +39287,7 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="100" t="s">
+      <c r="A496" s="101" t="s">
         <v>524</v>
       </c>
       <c r="B496">
@@ -39631,7 +39642,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="101" t="s">
+      <c r="A501" s="102" t="s">
         <v>529</v>
       </c>
       <c r="B501">
@@ -39915,7 +39926,7 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="102" t="s">
+      <c r="A505" s="103" t="s">
         <v>533</v>
       </c>
       <c r="B505">
@@ -40270,7 +40281,7 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="103" t="s">
+      <c r="A510" s="104" t="s">
         <v>538</v>
       </c>
       <c r="B510">
@@ -40625,7 +40636,7 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="104" t="s">
+      <c r="A515" s="105" t="s">
         <v>543</v>
       </c>
       <c r="B515">
@@ -40980,7 +40991,7 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="105" t="s">
+      <c r="A520" s="106" t="s">
         <v>548</v>
       </c>
       <c r="B520">
@@ -41335,7 +41346,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="106" t="s">
+      <c r="A525" s="107" t="s">
         <v>553</v>
       </c>
       <c r="B525">
@@ -41690,7 +41701,7 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="107" t="s">
+      <c r="A530" s="108" t="s">
         <v>558</v>
       </c>
       <c r="B530">
@@ -42045,7 +42056,7 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="108" t="s">
+      <c r="A535" s="109" t="s">
         <v>563</v>
       </c>
       <c r="B535">
@@ -42400,7 +42411,7 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="109" t="s">
+      <c r="A540" s="110" t="s">
         <v>568</v>
       </c>
       <c r="B540">
@@ -42755,7 +42766,7 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="110" t="s">
+      <c r="A545" s="111" t="s">
         <v>573</v>
       </c>
       <c r="B545">
@@ -43110,7 +43121,7 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="111" t="s">
+      <c r="A550" s="112" t="s">
         <v>578</v>
       </c>
       <c r="B550">
@@ -43465,7 +43476,7 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="112" t="s">
+      <c r="A555" s="113" t="s">
         <v>583</v>
       </c>
       <c r="B555">
@@ -43820,7 +43831,7 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="113" t="s">
+      <c r="A560" s="114" t="s">
         <v>588</v>
       </c>
       <c r="B560">
@@ -44175,7 +44186,7 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="114" t="s">
+      <c r="A565" s="115" t="s">
         <v>593</v>
       </c>
       <c r="B565">
@@ -44530,7 +44541,7 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" s="115" t="s">
+      <c r="A570" s="116" t="s">
         <v>598</v>
       </c>
       <c r="B570">
@@ -44885,7 +44896,7 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="116" t="s">
+      <c r="A575" s="117" t="s">
         <v>603</v>
       </c>
       <c r="B575">
@@ -45240,7 +45251,7 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="117" t="s">
+      <c r="A580" s="118" t="s">
         <v>608</v>
       </c>
       <c r="B580">
@@ -45595,7 +45606,7 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="118" t="s">
+      <c r="A585" s="119" t="s">
         <v>613</v>
       </c>
       <c r="B585">
@@ -45950,7 +45961,7 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="119" t="s">
+      <c r="A590" s="120" t="s">
         <v>618</v>
       </c>
       <c r="B590">
@@ -46589,7 +46600,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="120" t="s">
+      <c r="A599" s="121" t="s">
         <v>627</v>
       </c>
       <c r="B599">
@@ -46944,7 +46955,7 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="121" t="s">
+      <c r="A604" s="122" t="s">
         <v>632</v>
       </c>
       <c r="B604">
@@ -47299,7 +47310,7 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="122" t="s">
+      <c r="A609" s="123" t="s">
         <v>637</v>
       </c>
       <c r="B609">
@@ -47583,7 +47594,7 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="123" t="s">
+      <c r="A613" s="124" t="s">
         <v>641</v>
       </c>
       <c r="B613">
@@ -47938,7 +47949,7 @@
       </c>
     </row>
     <row r="618">
-      <c r="A618" s="124" t="s">
+      <c r="A618" s="125" t="s">
         <v>646</v>
       </c>
       <c r="B618">
@@ -48222,7 +48233,7 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="125" t="s">
+      <c r="A622" s="126" t="s">
         <v>650</v>
       </c>
       <c r="B622">
@@ -48719,7 +48730,7 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="126" t="s">
+      <c r="A629" s="127" t="s">
         <v>657</v>
       </c>
       <c r="B629">
@@ -49074,7 +49085,7 @@
       </c>
     </row>
     <row r="634">
-      <c r="A634" s="127" t="s">
+      <c r="A634" s="128" t="s">
         <v>662</v>
       </c>
       <c r="B634">
@@ -49429,7 +49440,7 @@
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="128" t="s">
+      <c r="A639" s="129" t="s">
         <v>667</v>
       </c>
       <c r="B639">
@@ -49713,7 +49724,7 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="129" t="s">
+      <c r="A643" s="130" t="s">
         <v>671</v>
       </c>
       <c r="B643">
@@ -50068,7 +50079,7 @@
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="130" t="s">
+      <c r="A648" s="131" t="s">
         <v>676</v>
       </c>
       <c r="B648">
@@ -50423,7 +50434,7 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="131" t="s">
+      <c r="A653" s="132" t="s">
         <v>681</v>
       </c>
       <c r="B653">
@@ -50707,7 +50718,7 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="132" t="s">
+      <c r="A657" s="133" t="s">
         <v>685</v>
       </c>
       <c r="B657">
@@ -51062,7 +51073,7 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="133" t="s">
+      <c r="A662" s="134" t="s">
         <v>690</v>
       </c>
       <c r="B662">
@@ -51417,7 +51428,7 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="134" t="s">
+      <c r="A667" s="135" t="s">
         <v>695</v>
       </c>
       <c r="B667">
@@ -51843,7 +51854,7 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="135" t="s">
+      <c r="A673" s="136" t="s">
         <v>701</v>
       </c>
       <c r="B673">
@@ -52198,7 +52209,7 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="136" t="s">
+      <c r="A678" s="137" t="s">
         <v>706</v>
       </c>
       <c r="B678">
@@ -52553,7 +52564,7 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="137" t="s">
+      <c r="A683" s="138" t="s">
         <v>711</v>
       </c>
       <c r="B683">
@@ -52908,7 +52919,7 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="138" t="s">
+      <c r="A688" s="139" t="s">
         <v>716</v>
       </c>
       <c r="B688">
@@ -53263,7 +53274,7 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="139" t="s">
+      <c r="A693" s="140" t="s">
         <v>721</v>
       </c>
       <c r="B693">
@@ -53547,7 +53558,7 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="140" t="s">
+      <c r="A697" s="141" t="s">
         <v>725</v>
       </c>
       <c r="B697">
@@ -53902,7 +53913,7 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="141" t="s">
+      <c r="A702" s="142" t="s">
         <v>730</v>
       </c>
       <c r="B702">
@@ -54257,7 +54268,7 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="142" t="s">
+      <c r="A707" s="143" t="s">
         <v>735</v>
       </c>
       <c r="B707">
@@ -54612,7 +54623,7 @@
       </c>
     </row>
     <row r="712">
-      <c r="A712" s="143" t="s">
+      <c r="A712" s="144" t="s">
         <v>740</v>
       </c>
       <c r="B712">
@@ -54967,7 +54978,7 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" s="144" t="s">
+      <c r="A717" s="145" t="s">
         <v>745</v>
       </c>
       <c r="B717">
@@ -55322,7 +55333,7 @@
       </c>
     </row>
     <row r="722">
-      <c r="A722" s="145" t="s">
+      <c r="A722" s="146" t="s">
         <v>750</v>
       </c>
       <c r="B722">
@@ -55606,7 +55617,7 @@
       </c>
     </row>
     <row r="726">
-      <c r="A726" s="146" t="s">
+      <c r="A726" s="147" t="s">
         <v>754</v>
       </c>
       <c r="B726">
@@ -55961,7 +55972,7 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="147" t="s">
+      <c r="A731" s="148" t="s">
         <v>759</v>
       </c>
       <c r="B731">
@@ -56955,7 +56966,7 @@
       </c>
     </row>
     <row r="745">
-      <c r="A745" s="148" t="s">
+      <c r="A745" s="149" t="s">
         <v>773</v>
       </c>
       <c r="B745">
@@ -57239,7 +57250,7 @@
       </c>
     </row>
     <row r="749">
-      <c r="A749" s="149" t="s">
+      <c r="A749" s="150" t="s">
         <v>777</v>
       </c>
       <c r="B749">
@@ -57523,7 +57534,7 @@
       </c>
     </row>
     <row r="753">
-      <c r="A753" s="150" t="s">
+      <c r="A753" s="151" t="s">
         <v>781</v>
       </c>
       <c r="B753">
@@ -57878,7 +57889,7 @@
       </c>
     </row>
     <row r="758">
-      <c r="A758" s="151" t="s">
+      <c r="A758" s="152" t="s">
         <v>786</v>
       </c>
       <c r="B758">
@@ -58233,7 +58244,7 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" s="152" t="s">
+      <c r="A763" s="153" t="s">
         <v>791</v>
       </c>
       <c r="B763">
@@ -58517,7 +58528,7 @@
       </c>
     </row>
     <row r="767">
-      <c r="A767" s="153" t="s">
+      <c r="A767" s="154" t="s">
         <v>795</v>
       </c>
       <c r="B767">
@@ -59156,7 +59167,7 @@
       </c>
     </row>
     <row r="776">
-      <c r="A776" s="154" t="s">
+      <c r="A776" s="155" t="s">
         <v>804</v>
       </c>
       <c r="B776">
@@ -59511,7 +59522,7 @@
       </c>
     </row>
     <row r="781">
-      <c r="A781" s="155" t="s">
+      <c r="A781" s="156" t="s">
         <v>809</v>
       </c>
       <c r="B781">
@@ -60079,7 +60090,7 @@
       </c>
     </row>
     <row r="789">
-      <c r="A789" s="156" t="s">
+      <c r="A789" s="157" t="s">
         <v>817</v>
       </c>
       <c r="B789">
@@ -60434,7 +60445,7 @@
       </c>
     </row>
     <row r="794">
-      <c r="A794" s="157" t="s">
+      <c r="A794" s="158" t="s">
         <v>822</v>
       </c>
       <c r="B794">
@@ -60789,7 +60800,7 @@
       </c>
     </row>
     <row r="799">
-      <c r="A799" s="158" t="s">
+      <c r="A799" s="159" t="s">
         <v>827</v>
       </c>
       <c r="B799">
@@ -61144,7 +61155,7 @@
       </c>
     </row>
     <row r="804">
-      <c r="A804" s="159" t="s">
+      <c r="A804" s="160" t="s">
         <v>832</v>
       </c>
       <c r="B804">
@@ -61499,7 +61510,7 @@
       </c>
     </row>
     <row r="809">
-      <c r="A809" s="160" t="s">
+      <c r="A809" s="161" t="s">
         <v>837</v>
       </c>
       <c r="B809">
@@ -61854,7 +61865,7 @@
       </c>
     </row>
     <row r="814">
-      <c r="A814" s="161" t="s">
+      <c r="A814" s="162" t="s">
         <v>842</v>
       </c>
       <c r="B814">
@@ -62209,7 +62220,7 @@
       </c>
     </row>
     <row r="819">
-      <c r="A819" s="162" t="s">
+      <c r="A819" s="163" t="s">
         <v>847</v>
       </c>
       <c r="B819">
@@ -62564,7 +62575,7 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" s="163" t="s">
+      <c r="A824" s="164" t="s">
         <v>852</v>
       </c>
       <c r="B824">
@@ -62919,7 +62930,7 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829" s="164" t="s">
+      <c r="A829" s="165" t="s">
         <v>857</v>
       </c>
       <c r="B829">
@@ -63203,7 +63214,7 @@
       </c>
     </row>
     <row r="833">
-      <c r="A833" s="165" t="s">
+      <c r="A833" s="166" t="s">
         <v>861</v>
       </c>
       <c r="B833">
@@ -63558,7 +63569,7 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" s="166" t="s">
+      <c r="A838" s="167" t="s">
         <v>866</v>
       </c>
       <c r="B838">
@@ -63913,7 +63924,7 @@
       </c>
     </row>
     <row r="843">
-      <c r="A843" s="167" t="s">
+      <c r="A843" s="168" t="s">
         <v>871</v>
       </c>
       <c r="B843">
@@ -64268,7 +64279,7 @@
       </c>
     </row>
     <row r="848">
-      <c r="A848" s="168" t="s">
+      <c r="A848" s="169" t="s">
         <v>876</v>
       </c>
       <c r="B848">
@@ -64623,7 +64634,7 @@
       </c>
     </row>
     <row r="853">
-      <c r="A853" s="169" t="s">
+      <c r="A853" s="170" t="s">
         <v>881</v>
       </c>
       <c r="B853">
@@ -65191,7 +65202,7 @@
       </c>
     </row>
     <row r="861">
-      <c r="A861" s="170" t="s">
+      <c r="A861" s="171" t="s">
         <v>889</v>
       </c>
       <c r="B861">
@@ -65404,7 +65415,7 @@
       </c>
     </row>
     <row r="864">
-      <c r="A864" s="171" t="s">
+      <c r="A864" s="172" t="s">
         <v>892</v>
       </c>
       <c r="B864">
@@ -65759,7 +65770,7 @@
       </c>
     </row>
     <row r="869">
-      <c r="A869" s="172" t="s">
+      <c r="A869" s="173" t="s">
         <v>897</v>
       </c>
       <c r="B869">
@@ -66114,7 +66125,7 @@
       </c>
     </row>
     <row r="874">
-      <c r="A874" s="173" t="s">
+      <c r="A874" s="174" t="s">
         <v>902</v>
       </c>
       <c r="B874">
@@ -66469,7 +66480,7 @@
       </c>
     </row>
     <row r="879">
-      <c r="A879" s="174" t="s">
+      <c r="A879" s="175" t="s">
         <v>907</v>
       </c>
       <c r="B879">
@@ -66753,7 +66764,7 @@
       </c>
     </row>
     <row r="883">
-      <c r="A883" s="175" t="s">
+      <c r="A883" s="176" t="s">
         <v>911</v>
       </c>
       <c r="B883">
@@ -67108,7 +67119,7 @@
       </c>
     </row>
     <row r="888">
-      <c r="A888" s="176" t="s">
+      <c r="A888" s="177" t="s">
         <v>916</v>
       </c>
       <c r="B888">
@@ -67747,7 +67758,7 @@
       </c>
     </row>
     <row r="897">
-      <c r="A897" s="177" t="s">
+      <c r="A897" s="178" t="s">
         <v>925</v>
       </c>
       <c r="B897">
@@ -68102,7 +68113,7 @@
       </c>
     </row>
     <row r="902">
-      <c r="A902" s="178" t="s">
+      <c r="A902" s="179" t="s">
         <v>930</v>
       </c>
       <c r="B902">
@@ -68457,7 +68468,7 @@
       </c>
     </row>
     <row r="907">
-      <c r="A907" s="179" t="s">
+      <c r="A907" s="180" t="s">
         <v>935</v>
       </c>
       <c r="B907">
@@ -68812,7 +68823,7 @@
       </c>
     </row>
     <row r="912">
-      <c r="A912" s="180" t="s">
+      <c r="A912" s="181" t="s">
         <v>940</v>
       </c>
       <c r="B912">
@@ -69167,7 +69178,7 @@
       </c>
     </row>
     <row r="917">
-      <c r="A917" s="181" t="s">
+      <c r="A917" s="182" t="s">
         <v>945</v>
       </c>
       <c r="B917">
@@ -69522,7 +69533,7 @@
       </c>
     </row>
     <row r="922">
-      <c r="A922" s="182" t="s">
+      <c r="A922" s="183" t="s">
         <v>950</v>
       </c>
       <c r="B922">
@@ -69877,7 +69888,7 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" s="183" t="s">
+      <c r="A927" s="184" t="s">
         <v>955</v>
       </c>
       <c r="B927">
@@ -70232,7 +70243,7 @@
       </c>
     </row>
     <row r="932">
-      <c r="A932" s="184" t="s">
+      <c r="A932" s="185" t="s">
         <v>960</v>
       </c>
       <c r="B932">
@@ -70587,7 +70598,7 @@
       </c>
     </row>
     <row r="937">
-      <c r="A937" s="185" t="s">
+      <c r="A937" s="186" t="s">
         <v>965</v>
       </c>
       <c r="B937">
@@ -70871,7 +70882,7 @@
       </c>
     </row>
     <row r="941">
-      <c r="A941" s="186" t="s">
+      <c r="A941" s="187" t="s">
         <v>969</v>
       </c>
       <c r="B941">
@@ -71226,7 +71237,7 @@
       </c>
     </row>
     <row r="946">
-      <c r="A946" s="187" t="s">
+      <c r="A946" s="188" t="s">
         <v>974</v>
       </c>
       <c r="B946">
@@ -71581,7 +71592,7 @@
       </c>
     </row>
     <row r="951">
-      <c r="A951" s="188" t="s">
+      <c r="A951" s="189" t="s">
         <v>979</v>
       </c>
       <c r="B951">
@@ -71936,7 +71947,7 @@
       </c>
     </row>
     <row r="956">
-      <c r="A956" s="189" t="s">
+      <c r="A956" s="190" t="s">
         <v>984</v>
       </c>
       <c r="B956">
@@ -72291,7 +72302,7 @@
       </c>
     </row>
     <row r="961">
-      <c r="A961" s="190" t="s">
+      <c r="A961" s="191" t="s">
         <v>989</v>
       </c>
       <c r="B961">
@@ -72575,7 +72586,7 @@
       </c>
     </row>
     <row r="965">
-      <c r="A965" s="191" t="s">
+      <c r="A965" s="192" t="s">
         <v>993</v>
       </c>
       <c r="B965">
@@ -72930,7 +72941,7 @@
       </c>
     </row>
     <row r="970">
-      <c r="A970" s="192" t="s">
+      <c r="A970" s="193" t="s">
         <v>998</v>
       </c>
       <c r="B970">
@@ -73214,7 +73225,7 @@
       </c>
     </row>
     <row r="974">
-      <c r="A974" s="193" t="s">
+      <c r="A974" s="194" t="s">
         <v>1002</v>
       </c>
       <c r="B974">
@@ -73569,7 +73580,7 @@
       </c>
     </row>
     <row r="979">
-      <c r="A979" s="194" t="s">
+      <c r="A979" s="195" t="s">
         <v>1007</v>
       </c>
       <c r="B979">
@@ -73924,7 +73935,7 @@
       </c>
     </row>
     <row r="984">
-      <c r="A984" s="195" t="s">
+      <c r="A984" s="196" t="s">
         <v>1012</v>
       </c>
       <c r="B984">
@@ -74208,7 +74219,7 @@
       </c>
     </row>
     <row r="988">
-      <c r="A988" s="196" t="s">
+      <c r="A988" s="197" t="s">
         <v>1016</v>
       </c>
       <c r="B988">
@@ -74563,7 +74574,7 @@
       </c>
     </row>
     <row r="993">
-      <c r="A993" s="197" t="s">
+      <c r="A993" s="198" t="s">
         <v>1021</v>
       </c>
       <c r="B993">
@@ -74847,7 +74858,7 @@
       </c>
     </row>
     <row r="997">
-      <c r="A997" s="198" t="s">
+      <c r="A997" s="199" t="s">
         <v>1025</v>
       </c>
       <c r="B997">
@@ -75202,7 +75213,7 @@
       </c>
     </row>
     <row r="1002">
-      <c r="A1002" s="199" t="s">
+      <c r="A1002" s="200" t="s">
         <v>1030</v>
       </c>
       <c r="B1002">
@@ -75486,7 +75497,7 @@
       </c>
     </row>
     <row r="1006">
-      <c r="A1006" s="200" t="s">
+      <c r="A1006" s="201" t="s">
         <v>1034</v>
       </c>
       <c r="B1006">
@@ -75770,7 +75781,7 @@
       </c>
     </row>
     <row r="1010">
-      <c r="A1010" s="201" t="s">
+      <c r="A1010" s="202" t="s">
         <v>1038</v>
       </c>
       <c r="B1010">
@@ -76125,7 +76136,7 @@
       </c>
     </row>
     <row r="1015">
-      <c r="A1015" s="202" t="s">
+      <c r="A1015" s="203" t="s">
         <v>1043</v>
       </c>
       <c r="B1015">
@@ -76480,7 +76491,7 @@
       </c>
     </row>
     <row r="1020">
-      <c r="A1020" s="203" t="s">
+      <c r="A1020" s="204" t="s">
         <v>1048</v>
       </c>
       <c r="B1020">
@@ -76764,7 +76775,7 @@
       </c>
     </row>
     <row r="1024">
-      <c r="A1024" s="204" t="s">
+      <c r="A1024" s="205" t="s">
         <v>1052</v>
       </c>
       <c r="B1024">
@@ -77048,7 +77059,7 @@
       </c>
     </row>
     <row r="1028">
-      <c r="A1028" s="205" t="s">
+      <c r="A1028" s="206" t="s">
         <v>1056</v>
       </c>
       <c r="B1028">
@@ -77403,7 +77414,7 @@
       </c>
     </row>
     <row r="1033">
-      <c r="A1033" s="206" t="s">
+      <c r="A1033" s="207" t="s">
         <v>1061</v>
       </c>
       <c r="B1033">
@@ -77758,7 +77769,7 @@
       </c>
     </row>
     <row r="1038">
-      <c r="A1038" s="207" t="s">
+      <c r="A1038" s="208" t="s">
         <v>1066</v>
       </c>
       <c r="B1038">
@@ -78113,7 +78124,7 @@
       </c>
     </row>
     <row r="1043">
-      <c r="A1043" s="208" t="s">
+      <c r="A1043" s="209" t="s">
         <v>1071</v>
       </c>
       <c r="B1043">
@@ -78468,7 +78479,7 @@
       </c>
     </row>
     <row r="1048">
-      <c r="A1048" s="209" t="s">
+      <c r="A1048" s="210" t="s">
         <v>1076</v>
       </c>
       <c r="B1048">
@@ -78823,7 +78834,7 @@
       </c>
     </row>
     <row r="1053">
-      <c r="A1053" s="210" t="s">
+      <c r="A1053" s="211" t="s">
         <v>1081</v>
       </c>
       <c r="B1053">
@@ -79178,7 +79189,7 @@
       </c>
     </row>
     <row r="1058">
-      <c r="A1058" s="211" t="s">
+      <c r="A1058" s="212" t="s">
         <v>1086</v>
       </c>
       <c r="B1058">
@@ -79533,7 +79544,7 @@
       </c>
     </row>
     <row r="1063">
-      <c r="A1063" s="212" t="s">
+      <c r="A1063" s="213" t="s">
         <v>1091</v>
       </c>
       <c r="B1063">
@@ -79888,7 +79899,7 @@
       </c>
     </row>
     <row r="1068">
-      <c r="A1068" s="213" t="s">
+      <c r="A1068" s="214" t="s">
         <v>1096</v>
       </c>
       <c r="B1068">
@@ -80243,7 +80254,7 @@
       </c>
     </row>
     <row r="1073">
-      <c r="A1073" s="214" t="s">
+      <c r="A1073" s="215" t="s">
         <v>1101</v>
       </c>
       <c r="B1073">
@@ -80598,7 +80609,7 @@
       </c>
     </row>
     <row r="1078">
-      <c r="A1078" s="215" t="s">
+      <c r="A1078" s="216" t="s">
         <v>1106</v>
       </c>
       <c r="B1078">
@@ -80953,7 +80964,7 @@
       </c>
     </row>
     <row r="1083">
-      <c r="A1083" s="216" t="s">
+      <c r="A1083" s="217" t="s">
         <v>1111</v>
       </c>
       <c r="B1083">
@@ -81308,7 +81319,7 @@
       </c>
     </row>
     <row r="1088">
-      <c r="A1088" s="217" t="s">
+      <c r="A1088" s="218" t="s">
         <v>1116</v>
       </c>
       <c r="B1088">
@@ -81663,7 +81674,7 @@
       </c>
     </row>
     <row r="1093">
-      <c r="A1093" s="218" t="s">
+      <c r="A1093" s="219" t="s">
         <v>1121</v>
       </c>
       <c r="B1093">
@@ -82018,7 +82029,7 @@
       </c>
     </row>
     <row r="1098">
-      <c r="A1098" s="219" t="s">
+      <c r="A1098" s="220" t="s">
         <v>1126</v>
       </c>
       <c r="B1098">
@@ -82302,7 +82313,7 @@
       </c>
     </row>
     <row r="1102">
-      <c r="A1102" s="220" t="s">
+      <c r="A1102" s="221" t="s">
         <v>1130</v>
       </c>
       <c r="B1102">
@@ -82657,7 +82668,7 @@
       </c>
     </row>
     <row r="1107">
-      <c r="A1107" s="221" t="s">
+      <c r="A1107" s="222" t="s">
         <v>1135</v>
       </c>
       <c r="B1107">
@@ -83012,7 +83023,7 @@
       </c>
     </row>
     <row r="1112">
-      <c r="A1112" s="222" t="s">
+      <c r="A1112" s="223" t="s">
         <v>1140</v>
       </c>
       <c r="B1112">
@@ -83367,7 +83378,7 @@
       </c>
     </row>
     <row r="1117">
-      <c r="A1117" s="223" t="s">
+      <c r="A1117" s="224" t="s">
         <v>1145</v>
       </c>
       <c r="B1117">
@@ -83722,7 +83733,7 @@
       </c>
     </row>
     <row r="1122">
-      <c r="A1122" s="224" t="s">
+      <c r="A1122" s="225" t="s">
         <v>1150</v>
       </c>
       <c r="B1122">
@@ -83935,7 +83946,7 @@
       </c>
     </row>
     <row r="1125">
-      <c r="A1125" s="225" t="s">
+      <c r="A1125" s="226" t="s">
         <v>1153</v>
       </c>
       <c r="B1125">
@@ -84290,7 +84301,7 @@
       </c>
     </row>
     <row r="1130">
-      <c r="A1130" s="226" t="s">
+      <c r="A1130" s="227" t="s">
         <v>1158</v>
       </c>
       <c r="B1130">
@@ -84645,7 +84656,7 @@
       </c>
     </row>
     <row r="1135">
-      <c r="A1135" s="227" t="s">
+      <c r="A1135" s="228" t="s">
         <v>1163</v>
       </c>
       <c r="B1135">
@@ -85000,7 +85011,7 @@
       </c>
     </row>
     <row r="1140">
-      <c r="A1140" s="228" t="s">
+      <c r="A1140" s="229" t="s">
         <v>1168</v>
       </c>
       <c r="B1140">
@@ -85284,7 +85295,7 @@
       </c>
     </row>
     <row r="1144">
-      <c r="A1144" s="229" t="s">
+      <c r="A1144" s="230" t="s">
         <v>1172</v>
       </c>
       <c r="B1144">
@@ -85639,7 +85650,7 @@
       </c>
     </row>
     <row r="1149">
-      <c r="A1149" s="230" t="s">
+      <c r="A1149" s="231" t="s">
         <v>1177</v>
       </c>
       <c r="B1149">
@@ -85923,7 +85934,7 @@
       </c>
     </row>
     <row r="1153">
-      <c r="A1153" s="231" t="s">
+      <c r="A1153" s="232" t="s">
         <v>1181</v>
       </c>
       <c r="B1153">
@@ -86278,7 +86289,7 @@
       </c>
     </row>
     <row r="1158">
-      <c r="A1158" s="232" t="s">
+      <c r="A1158" s="233" t="s">
         <v>1186</v>
       </c>
       <c r="B1158">
@@ -86633,7 +86644,7 @@
       </c>
     </row>
     <row r="1163">
-      <c r="A1163" s="233" t="s">
+      <c r="A1163" s="234" t="s">
         <v>1191</v>
       </c>
       <c r="B1163">
@@ -86917,7 +86928,7 @@
       </c>
     </row>
     <row r="1167">
-      <c r="A1167" s="234" t="s">
+      <c r="A1167" s="235" t="s">
         <v>1195</v>
       </c>
       <c r="B1167">
@@ -87272,7 +87283,7 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" s="235" t="s">
+      <c r="A1172" s="236" t="s">
         <v>1200</v>
       </c>
       <c r="B1172">
@@ -87627,7 +87638,7 @@
       </c>
     </row>
     <row r="1177">
-      <c r="A1177" s="236" t="s">
+      <c r="A1177" s="237" t="s">
         <v>1205</v>
       </c>
       <c r="B1177">
@@ -87982,7 +87993,7 @@
       </c>
     </row>
     <row r="1182">
-      <c r="A1182" s="237" t="s">
+      <c r="A1182" s="238" t="s">
         <v>1210</v>
       </c>
       <c r="B1182">
@@ -88621,7 +88632,7 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" s="238" t="s">
+      <c r="A1191" s="239" t="s">
         <v>1219</v>
       </c>
       <c r="B1191">
@@ -88976,7 +88987,7 @@
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" s="239" t="s">
+      <c r="A1196" s="240" t="s">
         <v>1224</v>
       </c>
       <c r="B1196">
@@ -89331,7 +89342,7 @@
       </c>
     </row>
     <row r="1201">
-      <c r="A1201" s="240" t="s">
+      <c r="A1201" s="241" t="s">
         <v>1229</v>
       </c>
       <c r="B1201">
@@ -89686,7 +89697,7 @@
       </c>
     </row>
     <row r="1206">
-      <c r="A1206" s="241" t="s">
+      <c r="A1206" s="242" t="s">
         <v>1234</v>
       </c>
       <c r="B1206">
@@ -90041,7 +90052,7 @@
       </c>
     </row>
     <row r="1211">
-      <c r="A1211" s="242" t="s">
+      <c r="A1211" s="243" t="s">
         <v>1239</v>
       </c>
       <c r="B1211">
@@ -90396,7 +90407,7 @@
       </c>
     </row>
     <row r="1216">
-      <c r="A1216" s="243" t="s">
+      <c r="A1216" s="244" t="s">
         <v>1244</v>
       </c>
       <c r="B1216">
@@ -90751,7 +90762,7 @@
       </c>
     </row>
     <row r="1221">
-      <c r="A1221" s="244" t="s">
+      <c r="A1221" s="245" t="s">
         <v>1249</v>
       </c>
       <c r="B1221">
@@ -91106,7 +91117,7 @@
       </c>
     </row>
     <row r="1226">
-      <c r="A1226" s="245" t="s">
+      <c r="A1226" s="246" t="s">
         <v>1254</v>
       </c>
       <c r="B1226">
@@ -91461,7 +91472,7 @@
       </c>
     </row>
     <row r="1231">
-      <c r="A1231" s="246" t="s">
+      <c r="A1231" s="247" t="s">
         <v>1259</v>
       </c>
       <c r="B1231">
@@ -91745,7 +91756,7 @@
       </c>
     </row>
     <row r="1235">
-      <c r="A1235" s="247" t="s">
+      <c r="A1235" s="248" t="s">
         <v>1263</v>
       </c>
       <c r="B1235">
@@ -92100,7 +92111,7 @@
       </c>
     </row>
     <row r="1240">
-      <c r="A1240" s="248" t="s">
+      <c r="A1240" s="249" t="s">
         <v>1268</v>
       </c>
       <c r="B1240">

--- a/Kite.Console/bin/Debug/net6.0/Result.xlsx
+++ b/Kite.Console/bin/Debug/net6.0/Result.xlsx
@@ -4404,19 +4404,19 @@
         <v>-44.599999999998545</v>
       </c>
       <c r="Q2">
-        <v>17310.7</v>
+        <v>-21.099999999998545</v>
       </c>
       <c r="R2">
-        <v>17263.25</v>
+        <v>-68.54999999999927</v>
       </c>
       <c r="S2">
-        <v>17269.35</v>
+        <v>-62.45000000000073</v>
       </c>
       <c r="T2">
-        <v>17282.35</v>
+        <v>-49.45000000000073</v>
       </c>
       <c r="U2">
-        <v>17295.85</v>
+        <v>-35.95000000000073</v>
       </c>
       <c r="V2" t="s">
         <v>25</v>
@@ -4478,19 +4478,19 @@
         <v>104.95000000000073</v>
       </c>
       <c r="Q3">
-        <v>17415.45</v>
+        <v>141.15000000000146</v>
       </c>
       <c r="R3">
-        <v>17408.45</v>
+        <v>134.15000000000146</v>
       </c>
       <c r="S3">
-        <v>17406</v>
+        <v>131.70000000000073</v>
       </c>
       <c r="T3">
-        <v>17376.75</v>
+        <v>102.45000000000073</v>
       </c>
       <c r="U3">
-        <v>17353.7</v>
+        <v>79.40000000000146</v>
       </c>
       <c r="V3" t="s">
         <v>28</v>
@@ -4552,19 +4552,19 @@
         <v>260.1000000000022</v>
       </c>
       <c r="Q4">
-        <v>17245.6</v>
+        <v>358.25</v>
       </c>
       <c r="R4">
-        <v>17230.15</v>
+        <v>342.8000000000029</v>
       </c>
       <c r="S4">
-        <v>17247.4</v>
+        <v>360.0500000000029</v>
       </c>
       <c r="T4">
-        <v>17258.7</v>
+        <v>371.3500000000022</v>
       </c>
       <c r="U4">
-        <v>17259.8</v>
+        <v>372.4500000000007</v>
       </c>
       <c r="V4" t="s">
         <v>31</v>
@@ -4626,19 +4626,19 @@
         <v>7.75</v>
       </c>
       <c r="Q5">
-        <v>16961.35</v>
+        <v>-133</v>
       </c>
       <c r="R5">
-        <v>16966.75</v>
+        <v>-127.59999999999854</v>
       </c>
       <c r="S5">
-        <v>17021.9</v>
+        <v>-72.44999999999709</v>
       </c>
       <c r="T5">
-        <v>16975.3</v>
+        <v>-119.04999999999927</v>
       </c>
       <c r="U5">
-        <v>16930.3</v>
+        <v>-164.04999999999927</v>
       </c>
       <c r="V5" t="s">
         <v>33</v>
@@ -4700,19 +4700,19 @@
         <v>-20.049999999999272</v>
       </c>
       <c r="Q6">
-        <v>16844.1</v>
+        <v>26</v>
       </c>
       <c r="R6">
-        <v>16904.8</v>
+        <v>86.70000000000073</v>
       </c>
       <c r="S6">
-        <v>17092.9</v>
+        <v>274.8000000000029</v>
       </c>
       <c r="T6">
-        <v>17139.6</v>
+        <v>321.5</v>
       </c>
       <c r="U6">
-        <v>17170.55</v>
+        <v>352.4500000000007</v>
       </c>
       <c r="V6" t="s">
         <v>35</v>
@@ -4774,19 +4774,19 @@
         <v>135</v>
       </c>
       <c r="Q7">
-        <v>16975.2</v>
+        <v>116.60000000000218</v>
       </c>
       <c r="R7">
-        <v>16943.15</v>
+        <v>84.55000000000291</v>
       </c>
       <c r="S7">
-        <v>16832.25</v>
+        <v>-26.349999999998545</v>
       </c>
       <c r="T7">
-        <v>16829.15</v>
+        <v>-29.44999999999709</v>
       </c>
       <c r="U7">
-        <v>16839.25</v>
+        <v>-19.349999999998545</v>
       </c>
       <c r="V7" t="s">
         <v>33</v>
@@ -4848,19 +4848,19 @@
         <v>-136.85000000000218</v>
       </c>
       <c r="Q8">
-        <v>16957.55</v>
+        <v>-49.85000000000218</v>
       </c>
       <c r="R8">
-        <v>16943.05</v>
+        <v>-64.35000000000218</v>
       </c>
       <c r="S8">
-        <v>16977.55</v>
+        <v>-29.850000000002183</v>
       </c>
       <c r="T8">
-        <v>16952.1</v>
+        <v>-55.30000000000291</v>
       </c>
       <c r="U8">
-        <v>16916.25</v>
+        <v>-91.15000000000146</v>
       </c>
       <c r="V8" t="s">
         <v>26</v>
@@ -4922,19 +4922,19 @@
         <v>94.60000000000218</v>
       </c>
       <c r="Q9">
-        <v>17043.35</v>
+        <v>27.049999999999272</v>
       </c>
       <c r="R9">
-        <v>17048.15</v>
+        <v>31.850000000002183</v>
       </c>
       <c r="S9">
-        <v>17064.35</v>
+        <v>48.04999999999927</v>
       </c>
       <c r="T9">
-        <v>17091.3</v>
+        <v>75</v>
       </c>
       <c r="U9">
-        <v>17028.75</v>
+        <v>12.450000000000728</v>
       </c>
       <c r="V9" t="s">
         <v>40</v>
@@ -4996,19 +4996,19 @@
         <v>-171.04999999999927</v>
       </c>
       <c r="Q10">
-        <v>17044.65</v>
+        <v>-282.6999999999971</v>
       </c>
       <c r="R10">
-        <v>17016.6</v>
+        <v>-310.75</v>
       </c>
       <c r="S10">
-        <v>17157.7</v>
+        <v>-169.64999999999782</v>
       </c>
       <c r="T10">
-        <v>17087.6</v>
+        <v>-239.75</v>
       </c>
       <c r="U10">
-        <v>17128.6</v>
+        <v>-198.75</v>
       </c>
       <c r="V10" t="s">
         <v>43</v>
@@ -5070,19 +5070,19 @@
         <v>-35.95000000000073</v>
       </c>
       <c r="Q11">
-        <v>17480</v>
+        <v>-149.79999999999927</v>
       </c>
       <c r="R11">
-        <v>17467.15</v>
+        <v>-162.64999999999782</v>
       </c>
       <c r="S11">
-        <v>17393.6</v>
+        <v>-236.20000000000073</v>
       </c>
       <c r="T11">
-        <v>17353.75</v>
+        <v>-276.0499999999993</v>
       </c>
       <c r="U11">
-        <v>17324.8</v>
+        <v>-305</v>
       </c>
       <c r="V11" t="s">
         <v>28</v>
@@ -5144,19 +5144,19 @@
         <v>-108.69999999999709</v>
       </c>
       <c r="Q12">
-        <v>17694.25</v>
+        <v>-24.099999999998545</v>
       </c>
       <c r="R12">
-        <v>17615.65</v>
+        <v>-102.69999999999709</v>
       </c>
       <c r="S12">
-        <v>17592.4</v>
+        <v>-125.94999999999709</v>
       </c>
       <c r="T12">
-        <v>17705.55</v>
+        <v>-12.799999999999272</v>
       </c>
       <c r="U12">
-        <v>17692.1</v>
+        <v>-26.25</v>
       </c>
       <c r="V12" t="s">
         <v>47</v>
@@ -5218,19 +5218,19 @@
         <v>-49.900000000001455</v>
       </c>
       <c r="Q13">
-        <v>17747.85</v>
+        <v>-68.40000000000146</v>
       </c>
       <c r="R13">
-        <v>17810.45</v>
+        <v>-5.799999999999272</v>
       </c>
       <c r="S13">
-        <v>17722.25</v>
+        <v>-94</v>
       </c>
       <c r="T13">
-        <v>17770.9</v>
+        <v>-45.349999999998545</v>
       </c>
       <c r="U13">
-        <v>17763.8</v>
+        <v>-52.45000000000073</v>
       </c>
       <c r="V13" t="s">
         <v>40</v>
@@ -5292,19 +5292,19 @@
         <v>148.15000000000146</v>
       </c>
       <c r="Q14">
-        <v>17841.55</v>
+        <v>219.29999999999927</v>
       </c>
       <c r="R14">
-        <v>17864.55</v>
+        <v>242.29999999999927</v>
       </c>
       <c r="S14">
-        <v>17897.85</v>
+        <v>275.59999999999854</v>
       </c>
       <c r="T14">
-        <v>17894.6</v>
+        <v>272.34999999999854</v>
       </c>
       <c r="U14">
-        <v>17879.2</v>
+        <v>256.9500000000007</v>
       </c>
       <c r="V14" t="s">
         <v>52</v>
@@ -5366,19 +5366,19 @@
         <v>9.80000000000291</v>
       </c>
       <c r="Q15">
-        <v>17638.2</v>
+        <v>107.35000000000218</v>
       </c>
       <c r="R15">
-        <v>17643.8</v>
+        <v>112.95000000000073</v>
       </c>
       <c r="S15">
-        <v>17623</v>
+        <v>92.15000000000146</v>
       </c>
       <c r="T15">
-        <v>17641.65</v>
+        <v>110.80000000000291</v>
       </c>
       <c r="U15">
-        <v>17614.5</v>
+        <v>83.65000000000146</v>
       </c>
       <c r="V15" t="s">
         <v>54</v>
@@ -5440,19 +5440,19 @@
         <v>-80.60000000000218</v>
       </c>
       <c r="Q16">
-        <v>17672.8</v>
+        <v>-204.60000000000218</v>
       </c>
       <c r="R16">
-        <v>17725.2</v>
+        <v>-152.20000000000073</v>
       </c>
       <c r="S16">
-        <v>17648.55</v>
+        <v>-228.85000000000218</v>
       </c>
       <c r="T16">
-        <v>17547.25</v>
+        <v>-330.15000000000146</v>
       </c>
       <c r="U16">
-        <v>17560.5</v>
+        <v>-316.90000000000146</v>
       </c>
       <c r="V16" t="s">
         <v>28</v>
@@ -5514,19 +5514,19 @@
         <v>42.599999999998545</v>
       </c>
       <c r="Q17">
-        <v>17970.9</v>
+        <v>-32.849999999998545</v>
       </c>
       <c r="R17">
-        <v>17943.25</v>
+        <v>-60.5</v>
       </c>
       <c r="S17">
-        <v>17916.4</v>
+        <v>-87.34999999999854</v>
       </c>
       <c r="T17">
-        <v>17897.25</v>
+        <v>-106.5</v>
       </c>
       <c r="U17">
-        <v>17930.75</v>
+        <v>-73</v>
       </c>
       <c r="V17" t="s">
         <v>33</v>
@@ -5588,19 +5588,19 @@
         <v>-298.8999999999978</v>
       </c>
       <c r="Q18">
-        <v>17915.25</v>
+        <v>-154.79999999999927</v>
       </c>
       <c r="R18">
-        <v>17925.45</v>
+        <v>-144.59999999999854</v>
       </c>
       <c r="S18">
-        <v>18033.2</v>
+        <v>-36.849999999998545</v>
       </c>
       <c r="T18">
-        <v>18042.4</v>
+        <v>-27.649999999997817</v>
       </c>
       <c r="U18">
-        <v>18084.75</v>
+        <v>14.700000000000728</v>
       </c>
       <c r="V18" t="s">
         <v>35</v>
@@ -5662,19 +5662,19 @@
         <v>108.10000000000218</v>
       </c>
       <c r="Q19">
-        <v>18054.15</v>
+        <v>117.80000000000291</v>
       </c>
       <c r="R19">
-        <v>18036.35</v>
+        <v>100</v>
       </c>
       <c r="S19">
-        <v>18077.95</v>
+        <v>141.60000000000218</v>
       </c>
       <c r="T19">
-        <v>18072.35</v>
+        <v>136</v>
       </c>
       <c r="U19">
-        <v>18072.55</v>
+        <v>136.20000000000073</v>
       </c>
       <c r="V19" t="s">
         <v>47</v>
@@ -5736,19 +5736,19 @@
         <v>57.5</v>
       </c>
       <c r="Q20">
-        <v>17954.75</v>
+        <v>121.40000000000146</v>
       </c>
       <c r="R20">
-        <v>17937.95</v>
+        <v>104.60000000000218</v>
       </c>
       <c r="S20">
-        <v>17949.55</v>
+        <v>116.20000000000073</v>
       </c>
       <c r="T20">
-        <v>17962.85</v>
+        <v>129.5</v>
       </c>
       <c r="U20">
-        <v>17951.8</v>
+        <v>118.45000000000073</v>
       </c>
       <c r="V20" t="s">
         <v>47</v>
@@ -5810,19 +5810,19 @@
         <v>124.59999999999854</v>
       </c>
       <c r="Q21">
-        <v>17901.35</v>
+        <v>102.59999999999854</v>
       </c>
       <c r="R21">
-        <v>17912.9</v>
+        <v>114.15000000000146</v>
       </c>
       <c r="S21">
-        <v>17834.1</v>
+        <v>35.349999999998545</v>
       </c>
       <c r="T21">
-        <v>17844.55</v>
+        <v>45.79999999999927</v>
       </c>
       <c r="U21">
-        <v>17855.95</v>
+        <v>57.20000000000073</v>
       </c>
       <c r="V21" t="s">
         <v>28</v>
@@ -5884,19 +5884,19 @@
         <v>123.75</v>
       </c>
       <c r="Q22">
-        <v>17772.4</v>
+        <v>148</v>
       </c>
       <c r="R22">
-        <v>17762.4</v>
+        <v>138</v>
       </c>
       <c r="S22">
-        <v>17711.2</v>
+        <v>86.79999999999927</v>
       </c>
       <c r="T22">
-        <v>17750.55</v>
+        <v>126.14999999999782</v>
       </c>
       <c r="U22">
-        <v>17771.05</v>
+        <v>146.64999999999782</v>
       </c>
       <c r="V22" t="s">
         <v>65</v>
@@ -5958,19 +5958,19 @@
         <v>-136.1999999999971</v>
       </c>
       <c r="Q23">
-        <v>17583.25</v>
+        <v>-72.34999999999854</v>
       </c>
       <c r="R23">
-        <v>17577.95</v>
+        <v>-77.64999999999782</v>
       </c>
       <c r="S23">
-        <v>17618.35</v>
+        <v>-37.25</v>
       </c>
       <c r="T23">
-        <v>17635.2</v>
+        <v>-20.399999999997817</v>
       </c>
       <c r="U23">
-        <v>17635.05</v>
+        <v>-20.549999999999272</v>
       </c>
       <c r="V23" t="s">
         <v>68</v>
@@ -6032,19 +6032,19 @@
         <v>29.900000000001455</v>
       </c>
       <c r="Q24">
-        <v>17669.05</v>
+        <v>3.25</v>
       </c>
       <c r="R24">
-        <v>17590.7</v>
+        <v>-75.09999999999854</v>
       </c>
       <c r="S24">
-        <v>17699.2</v>
+        <v>33.400000000001455</v>
       </c>
       <c r="T24">
-        <v>17686.7</v>
+        <v>20.900000000001455</v>
       </c>
       <c r="U24">
-        <v>17703.75</v>
+        <v>37.95000000000073</v>
       </c>
       <c r="V24" t="s">
         <v>28</v>
@@ -6106,19 +6106,19 @@
         <v>7</v>
       </c>
       <c r="Q25">
-        <v>17638.6</v>
+        <v>99.14999999999782</v>
       </c>
       <c r="R25">
-        <v>17653.5</v>
+        <v>114.04999999999927</v>
       </c>
       <c r="S25">
-        <v>17664.3</v>
+        <v>124.84999999999854</v>
       </c>
       <c r="T25">
-        <v>17659.45</v>
+        <v>120</v>
       </c>
       <c r="U25">
-        <v>17674.1</v>
+        <v>134.64999999999782</v>
       </c>
       <c r="V25" t="s">
         <v>45</v>
@@ -6180,19 +6180,19 @@
         <v>55.60000000000218</v>
       </c>
       <c r="Q26">
-        <v>17491.85</v>
+        <v>-50.95000000000073</v>
       </c>
       <c r="R26">
-        <v>17533.8</v>
+        <v>-9</v>
       </c>
       <c r="S26">
-        <v>17571.65</v>
+        <v>28.850000000002183</v>
       </c>
       <c r="T26">
-        <v>17608.4</v>
+        <v>65.60000000000218</v>
       </c>
       <c r="U26">
-        <v>17608</v>
+        <v>65.20000000000073</v>
       </c>
       <c r="V26" t="s">
         <v>28</v>
@@ -6254,19 +6254,19 @@
         <v>-273.59999999999854</v>
       </c>
       <c r="Q27">
-        <v>17627.95</v>
+        <v>-131.34999999999854</v>
       </c>
       <c r="R27">
-        <v>17671.3</v>
+        <v>-88</v>
       </c>
       <c r="S27">
-        <v>17567.1</v>
+        <v>-192.20000000000073</v>
       </c>
       <c r="T27">
-        <v>17486.55</v>
+        <v>-272.75</v>
       </c>
       <c r="U27">
-        <v>17530.3</v>
+        <v>-229</v>
       </c>
       <c r="V27" t="s">
         <v>75</v>
@@ -6328,19 +6328,19 @@
         <v>102.04999999999927</v>
       </c>
       <c r="Q28">
-        <v>17471.7</v>
+        <v>158.79999999999927</v>
       </c>
       <c r="R28">
-        <v>17484.85</v>
+        <v>171.9499999999971</v>
       </c>
       <c r="S28">
-        <v>17631.15</v>
+        <v>318.25</v>
       </c>
       <c r="T28">
-        <v>17660.8</v>
+        <v>347.8999999999978</v>
       </c>
       <c r="U28">
-        <v>17690.05</v>
+        <v>377.1499999999978</v>
       </c>
       <c r="V28" t="s">
         <v>57</v>
@@ -6402,19 +6402,19 @@
         <v>-370.25</v>
       </c>
       <c r="Q29">
-        <v>17315.7</v>
+        <v>-243.20000000000073</v>
       </c>
       <c r="R29">
-        <v>17310.9</v>
+        <v>-248</v>
       </c>
       <c r="S29">
-        <v>17324.7</v>
+        <v>-234.20000000000073</v>
       </c>
       <c r="T29">
-        <v>17354.35</v>
+        <v>-204.5500000000029</v>
       </c>
       <c r="U29">
-        <v>17325.35</v>
+        <v>-233.5500000000029</v>
       </c>
       <c r="V29" t="s">
         <v>79</v>
@@ -6476,19 +6476,19 @@
         <v>96.84999999999854</v>
       </c>
       <c r="Q30">
-        <v>17637.4</v>
+        <v>114.95000000000073</v>
       </c>
       <c r="R30">
-        <v>17624.55</v>
+        <v>102.09999999999854</v>
       </c>
       <c r="S30">
-        <v>17604.8</v>
+        <v>82.34999999999854</v>
       </c>
       <c r="T30">
-        <v>17607.95</v>
+        <v>85.5</v>
       </c>
       <c r="U30">
-        <v>17590.15</v>
+        <v>67.70000000000073</v>
       </c>
       <c r="V30" t="s">
         <v>43</v>
@@ -6550,19 +6550,19 @@
         <v>74.04999999999927</v>
       </c>
       <c r="Q31">
-        <v>17710.85</v>
+        <v>105.89999999999782</v>
       </c>
       <c r="R31">
-        <v>17687.3</v>
+        <v>82.34999999999854</v>
       </c>
       <c r="S31">
-        <v>17712.05</v>
+        <v>107.09999999999854</v>
       </c>
       <c r="T31">
-        <v>17696</v>
+        <v>91.04999999999927</v>
       </c>
       <c r="U31">
-        <v>17664.3</v>
+        <v>59.349999999998545</v>
       </c>
       <c r="V31" t="s">
         <v>66</v>
@@ -6624,19 +6624,19 @@
         <v>-52.04999999999927</v>
       </c>
       <c r="Q32">
-        <v>17563.65</v>
+        <v>-13.849999999998545</v>
       </c>
       <c r="R32">
-        <v>17579.6</v>
+        <v>2.099999999998545</v>
       </c>
       <c r="S32">
-        <v>17541.4</v>
+        <v>-36.099999999998545</v>
       </c>
       <c r="T32">
-        <v>17572.2</v>
+        <v>-5.299999999999272</v>
       </c>
       <c r="U32">
-        <v>17571.2</v>
+        <v>-6.299999999999272</v>
       </c>
       <c r="V32" t="s">
         <v>65</v>
@@ -6698,19 +6698,19 @@
         <v>-133.35000000000218</v>
       </c>
       <c r="Q33">
-        <v>17584.8</v>
+        <v>94.09999999999854</v>
       </c>
       <c r="R33">
-        <v>17500.4</v>
+        <v>9.700000000000728</v>
       </c>
       <c r="S33">
-        <v>17520.55</v>
+        <v>29.849999999998545</v>
       </c>
       <c r="T33">
-        <v>17569.15</v>
+        <v>78.45000000000073</v>
       </c>
       <c r="U33">
-        <v>17573.8</v>
+        <v>83.09999999999854</v>
       </c>
       <c r="V33" t="s">
         <v>29</v>
@@ -6772,19 +6772,19 @@
         <v>-75.54999999999927</v>
       </c>
       <c r="Q34">
-        <v>17591.7</v>
+        <v>-166.75</v>
       </c>
       <c r="R34">
-        <v>17584.2</v>
+        <v>-174.25</v>
       </c>
       <c r="S34">
-        <v>17543.65</v>
+        <v>-214.79999999999927</v>
       </c>
       <c r="T34">
-        <v>17530.5</v>
+        <v>-227.95000000000073</v>
       </c>
       <c r="U34">
-        <v>17558.85</v>
+        <v>-199.60000000000218</v>
       </c>
       <c r="V34" t="s">
         <v>28</v>
@@ -6846,19 +6846,19 @@
         <v>10.049999999999272</v>
       </c>
       <c r="Q35">
-        <v>17951.55</v>
+        <v>-4.950000000000728</v>
       </c>
       <c r="R35">
-        <v>17958.1</v>
+        <v>1.5999999999985448</v>
       </c>
       <c r="S35">
-        <v>17796.95</v>
+        <v>-159.54999999999927</v>
       </c>
       <c r="T35">
-        <v>17724.4</v>
+        <v>-232.09999999999854</v>
       </c>
       <c r="U35">
-        <v>17798.2</v>
+        <v>-158.29999999999927</v>
       </c>
       <c r="V35" t="s">
         <v>28</v>
@@ -6920,19 +6920,19 @@
         <v>-45.599999999998545</v>
       </c>
       <c r="Q36">
-        <v>17950.1</v>
+        <v>5.849999999998545</v>
       </c>
       <c r="R36">
-        <v>17892.65</v>
+        <v>-51.599999999998545</v>
       </c>
       <c r="S36">
-        <v>17893.65</v>
+        <v>-50.599999999998545</v>
       </c>
       <c r="T36">
-        <v>17891.3</v>
+        <v>-52.95000000000073</v>
       </c>
       <c r="U36">
-        <v>17915.4</v>
+        <v>-28.849999999998545</v>
       </c>
       <c r="V36" t="s">
         <v>29</v>
@@ -6994,19 +6994,19 @@
         <v>42.900000000001455</v>
       </c>
       <c r="Q37">
-        <v>17903.3</v>
+        <v>78.04999999999927</v>
       </c>
       <c r="R37">
-        <v>17918.9</v>
+        <v>93.65000000000146</v>
       </c>
       <c r="S37">
-        <v>17934.6</v>
+        <v>109.34999999999854</v>
       </c>
       <c r="T37">
-        <v>17920.15</v>
+        <v>94.90000000000146</v>
       </c>
       <c r="U37">
-        <v>17937.7</v>
+        <v>112.45000000000073</v>
       </c>
       <c r="V37" t="s">
         <v>81</v>
@@ -7068,19 +7068,19 @@
         <v>99.04999999999927</v>
       </c>
       <c r="Q38">
-        <v>17829.7</v>
+        <v>131.54999999999927</v>
       </c>
       <c r="R38">
-        <v>17821.7</v>
+        <v>123.54999999999927</v>
       </c>
       <c r="S38">
-        <v>17805.05</v>
+        <v>106.89999999999782</v>
       </c>
       <c r="T38">
-        <v>17793.3</v>
+        <v>95.14999999999782</v>
       </c>
       <c r="U38">
-        <v>17809.4</v>
+        <v>111.25</v>
       </c>
       <c r="V38" t="s">
         <v>94</v>
@@ -7142,19 +7142,19 @@
         <v>0.6500000000014552</v>
       </c>
       <c r="Q39">
-        <v>17664.5</v>
+        <v>5.5</v>
       </c>
       <c r="R39">
-        <v>17672.25</v>
+        <v>13.25</v>
       </c>
       <c r="S39">
-        <v>17704.45</v>
+        <v>45.45000000000073</v>
       </c>
       <c r="T39">
-        <v>17707.2</v>
+        <v>48.20000000000073</v>
       </c>
       <c r="U39">
-        <v>17689.35</v>
+        <v>30.349999999998545</v>
       </c>
       <c r="V39" t="s">
         <v>79</v>
@@ -7216,19 +7216,19 @@
         <v>176.90000000000146</v>
       </c>
       <c r="Q40">
-        <v>17683.8</v>
+        <v>149.04999999999927</v>
       </c>
       <c r="R40">
-        <v>17691.35</v>
+        <v>156.59999999999854</v>
       </c>
       <c r="S40">
-        <v>17673.45</v>
+        <v>138.70000000000073</v>
       </c>
       <c r="T40">
-        <v>17658.1</v>
+        <v>123.34999999999854</v>
       </c>
       <c r="U40">
-        <v>17666.35</v>
+        <v>131.59999999999854</v>
       </c>
       <c r="V40" t="s">
         <v>28</v>
@@ -7290,19 +7290,19 @@
         <v>41</v>
       </c>
       <c r="Q41">
-        <v>17452.5</v>
+        <v>-72.59999999999854</v>
       </c>
       <c r="R41">
-        <v>17524.8</v>
+        <v>-0.2999999999992724</v>
       </c>
       <c r="S41">
-        <v>17510.45</v>
+        <v>-14.649999999997817</v>
       </c>
       <c r="T41">
-        <v>17510.6</v>
+        <v>-14.5</v>
       </c>
       <c r="U41">
-        <v>17532.45</v>
+        <v>7.350000000002183</v>
       </c>
       <c r="V41" t="s">
         <v>28</v>
@@ -7364,19 +7364,19 @@
         <v>4</v>
       </c>
       <c r="Q42">
-        <v>17427.8</v>
+        <v>30.299999999999272</v>
       </c>
       <c r="R42">
-        <v>17455.3</v>
+        <v>57.79999999999927</v>
       </c>
       <c r="S42">
-        <v>17530.55</v>
+        <v>133.04999999999927</v>
       </c>
       <c r="T42">
-        <v>17528.85</v>
+        <v>131.34999999999854</v>
       </c>
       <c r="U42">
-        <v>17523.45</v>
+        <v>125.95000000000073</v>
       </c>
       <c r="V42" t="s">
         <v>100</v>
@@ -7438,19 +7438,19 @@
         <v>41.650000000001455</v>
       </c>
       <c r="Q43">
-        <v>17428.15</v>
+        <v>46.150000000001455</v>
       </c>
       <c r="R43">
-        <v>17451.4</v>
+        <v>69.40000000000146</v>
       </c>
       <c r="S43">
-        <v>17386.6</v>
+        <v>4.599999999998545</v>
       </c>
       <c r="T43">
-        <v>17411.95</v>
+        <v>29.950000000000728</v>
       </c>
       <c r="U43">
-        <v>17365.55</v>
+        <v>-16.450000000000728</v>
       </c>
       <c r="V43" t="s">
         <v>41</v>
@@ -7512,19 +7512,19 @@
         <v>74.94999999999709</v>
       </c>
       <c r="Q44">
-        <v>17459.7</v>
+        <v>71.54999999999927</v>
       </c>
       <c r="R44">
-        <v>17422.7</v>
+        <v>34.54999999999927</v>
       </c>
       <c r="S44">
-        <v>17335.3</v>
+        <v>-52.85000000000218</v>
       </c>
       <c r="T44">
-        <v>17290.85</v>
+        <v>-97.30000000000291</v>
       </c>
       <c r="U44">
-        <v>17289</v>
+        <v>-99.15000000000146</v>
       </c>
       <c r="V44" t="s">
         <v>28</v>
@@ -7586,19 +7586,19 @@
         <v>3.7999999999992724</v>
       </c>
       <c r="Q45">
-        <v>17309.4</v>
+        <v>-36.04999999999927</v>
       </c>
       <c r="R45">
-        <v>17263.45</v>
+        <v>-82</v>
       </c>
       <c r="S45">
-        <v>17291.2</v>
+        <v>-54.25</v>
       </c>
       <c r="T45">
-        <v>17308.95</v>
+        <v>-36.5</v>
       </c>
       <c r="U45">
-        <v>17314.9</v>
+        <v>-30.549999999999272</v>
       </c>
       <c r="V45" t="s">
         <v>29</v>
@@ -7660,19 +7660,19 @@
         <v>-29.899999999997817</v>
       </c>
       <c r="Q46">
-        <v>17242.45</v>
+        <v>-97.59999999999854</v>
       </c>
       <c r="R46">
-        <v>17254.8</v>
+        <v>-85.25</v>
       </c>
       <c r="S46">
-        <v>17262.35</v>
+        <v>-77.70000000000073</v>
       </c>
       <c r="T46">
-        <v>17330.6</v>
+        <v>-9.450000000000728</v>
       </c>
       <c r="U46">
-        <v>17347.2</v>
+        <v>7.150000000001455</v>
       </c>
       <c r="V46" t="s">
         <v>107</v>
@@ -7734,19 +7734,19 @@
         <v>84.95000000000073</v>
       </c>
       <c r="Q47">
-        <v>17264.05</v>
+        <v>105.79999999999927</v>
       </c>
       <c r="R47">
-        <v>17267.4</v>
+        <v>109.15000000000146</v>
       </c>
       <c r="S47">
-        <v>17295.85</v>
+        <v>137.59999999999854</v>
       </c>
       <c r="T47">
-        <v>17314.55</v>
+        <v>156.29999999999927</v>
       </c>
       <c r="U47">
-        <v>17310.05</v>
+        <v>151.79999999999927</v>
       </c>
       <c r="V47" t="s">
         <v>31</v>
@@ -7808,19 +7808,19 @@
         <v>149.90000000000146</v>
       </c>
       <c r="Q48">
-        <v>17128.9</v>
+        <v>199.3000000000029</v>
       </c>
       <c r="R48">
-        <v>17021.8</v>
+        <v>92.20000000000073</v>
       </c>
       <c r="S48">
-        <v>17104.4</v>
+        <v>174.8000000000029</v>
       </c>
       <c r="T48">
-        <v>17076.85</v>
+        <v>147.25</v>
       </c>
       <c r="U48">
-        <v>17095.25</v>
+        <v>165.65000000000146</v>
       </c>
       <c r="V48" t="s">
         <v>83</v>
@@ -7882,19 +7882,19 @@
         <v>133.04999999999927</v>
       </c>
       <c r="Q49">
-        <v>16807.45</v>
+        <v>165.65000000000146</v>
       </c>
       <c r="R49">
-        <v>16848.4</v>
+        <v>206.60000000000218</v>
       </c>
       <c r="S49">
-        <v>16892.6</v>
+        <v>250.79999999999927</v>
       </c>
       <c r="T49">
-        <v>16909</v>
+        <v>267.2000000000007</v>
       </c>
       <c r="U49">
-        <v>16921.65</v>
+        <v>279.8500000000022</v>
       </c>
       <c r="V49" t="s">
         <v>65</v>
@@ -7956,19 +7956,19 @@
         <v>-8.5</v>
       </c>
       <c r="Q50">
-        <v>16511.3</v>
+        <v>27.450000000000728</v>
       </c>
       <c r="R50">
-        <v>16525.25</v>
+        <v>41.400000000001455</v>
       </c>
       <c r="S50">
-        <v>16599.65</v>
+        <v>115.80000000000291</v>
       </c>
       <c r="T50">
-        <v>16595.55</v>
+        <v>111.70000000000073</v>
       </c>
       <c r="U50">
-        <v>16599.15</v>
+        <v>115.30000000000291</v>
       </c>
       <c r="V50" t="s">
         <v>57</v>
@@ -8030,19 +8030,19 @@
         <v>1.9000000000014552</v>
       </c>
       <c r="Q51">
-        <v>16520.85</v>
+        <v>-110.15000000000146</v>
       </c>
       <c r="R51">
-        <v>16505.95</v>
+        <v>-125.04999999999927</v>
       </c>
       <c r="S51">
-        <v>16542.6</v>
+        <v>-88.40000000000146</v>
       </c>
       <c r="T51">
-        <v>16517.65</v>
+        <v>-113.34999999999854</v>
       </c>
       <c r="U51">
-        <v>16517.5</v>
+        <v>-113.5</v>
       </c>
       <c r="V51" t="s">
         <v>28</v>
@@ -8104,19 +8104,19 @@
         <v>-56.900000000001455</v>
       </c>
       <c r="Q52">
-        <v>16590.85</v>
+        <v>-128.60000000000218</v>
       </c>
       <c r="R52">
-        <v>16604.85</v>
+        <v>-114.60000000000218</v>
       </c>
       <c r="S52">
-        <v>16594.5</v>
+        <v>-124.95000000000073</v>
       </c>
       <c r="T52">
-        <v>16625.5</v>
+        <v>-93.95000000000073</v>
       </c>
       <c r="U52">
-        <v>16679.15</v>
+        <v>-40.29999999999927</v>
       </c>
       <c r="V52" t="s">
         <v>33</v>
@@ -8178,19 +8178,19 @@
         <v>56</v>
       </c>
       <c r="Q53">
-        <v>16636.15</v>
+        <v>30.900000000001455</v>
       </c>
       <c r="R53">
-        <v>16652.15</v>
+        <v>46.900000000001455</v>
       </c>
       <c r="S53">
-        <v>16683.4</v>
+        <v>78.15000000000146</v>
       </c>
       <c r="T53">
-        <v>16720.85</v>
+        <v>115.59999999999854</v>
       </c>
       <c r="U53">
-        <v>16741.75</v>
+        <v>136.5</v>
       </c>
       <c r="V53" t="s">
         <v>45</v>
@@ -8252,19 +8252,19 @@
         <v>2.7000000000007276</v>
       </c>
       <c r="Q54">
-        <v>16565.8</v>
+        <v>44.95000000000073</v>
       </c>
       <c r="R54">
-        <v>16559.8</v>
+        <v>38.95000000000073</v>
       </c>
       <c r="S54">
-        <v>16548.15</v>
+        <v>27.30000000000291</v>
       </c>
       <c r="T54">
-        <v>16557.85</v>
+        <v>37</v>
       </c>
       <c r="U54">
-        <v>16585.85</v>
+        <v>65</v>
       </c>
       <c r="V54" t="s">
         <v>29</v>
@@ -8326,19 +8326,19 @@
         <v>222.25</v>
       </c>
       <c r="Q55">
-        <v>16527.8</v>
+        <v>187.25</v>
       </c>
       <c r="R55">
-        <v>16539.25</v>
+        <v>198.70000000000073</v>
       </c>
       <c r="S55">
-        <v>16564.9</v>
+        <v>224.35000000000218</v>
       </c>
       <c r="T55">
-        <v>16560.45</v>
+        <v>219.90000000000146</v>
       </c>
       <c r="U55">
-        <v>16527.65</v>
+        <v>187.10000000000218</v>
       </c>
       <c r="V55" t="s">
         <v>48</v>
@@ -8400,19 +8400,19 @@
         <v>-91.45000000000073</v>
       </c>
       <c r="Q56">
-        <v>16277.9</v>
+        <v>-0.6000000000003638</v>
       </c>
       <c r="R56">
-        <v>16288.2</v>
+        <v>9.700000000000728</v>
       </c>
       <c r="S56">
-        <v>16294.8</v>
+        <v>16.299999999999272</v>
       </c>
       <c r="T56">
-        <v>16311.6</v>
+        <v>33.100000000000364</v>
       </c>
       <c r="U56">
-        <v>16321.95</v>
+        <v>43.45000000000073</v>
       </c>
       <c r="V56" t="s">
         <v>65</v>
@@ -8474,19 +8474,19 @@
         <v>102.19999999999891</v>
       </c>
       <c r="Q57">
-        <v>16169.35</v>
+        <v>120.14999999999964</v>
       </c>
       <c r="R57">
-        <v>16178.05</v>
+        <v>128.84999999999854</v>
       </c>
       <c r="S57">
-        <v>16223.15</v>
+        <v>173.9499999999989</v>
       </c>
       <c r="T57">
-        <v>16228.4</v>
+        <v>179.1999999999989</v>
       </c>
       <c r="U57">
-        <v>16237.4</v>
+        <v>188.1999999999989</v>
       </c>
       <c r="V57" t="s">
         <v>57</v>
@@ -8548,19 +8548,19 @@
         <v>72.14999999999964</v>
       </c>
       <c r="Q58">
-        <v>15967.95</v>
+        <v>29.30000000000109</v>
       </c>
       <c r="R58">
-        <v>15976.85</v>
+        <v>38.20000000000073</v>
       </c>
       <c r="S58">
-        <v>15964.15</v>
+        <v>25.5</v>
       </c>
       <c r="T58">
-        <v>15962.35</v>
+        <v>23.700000000000728</v>
       </c>
       <c r="U58">
-        <v>16001.8</v>
+        <v>63.149999999999636</v>
       </c>
       <c r="V58" t="s">
         <v>83</v>
@@ -8622,19 +8622,19 @@
         <v>52.20000000000073</v>
       </c>
       <c r="Q59">
-        <v>16064.05</v>
+        <v>97.39999999999964</v>
       </c>
       <c r="R59">
-        <v>16031.1</v>
+        <v>64.45000000000073</v>
       </c>
       <c r="S59">
-        <v>15971.65</v>
+        <v>5</v>
       </c>
       <c r="T59">
-        <v>15900.35</v>
+        <v>-66.29999999999927</v>
       </c>
       <c r="U59">
-        <v>15871.95</v>
+        <v>-94.69999999999891</v>
       </c>
       <c r="V59" t="s">
         <v>123</v>
@@ -8696,19 +8696,19 @@
         <v>69.90000000000146</v>
       </c>
       <c r="Q60">
-        <v>16116.2</v>
+        <v>57.900000000001455</v>
       </c>
       <c r="R60">
-        <v>16081.6</v>
+        <v>23.30000000000109</v>
       </c>
       <c r="S60">
-        <v>16016.9</v>
+        <v>-41.399999999999636</v>
       </c>
       <c r="T60">
-        <v>15996.85</v>
+        <v>-61.44999999999891</v>
       </c>
       <c r="U60">
-        <v>15997.7</v>
+        <v>-60.599999999998545</v>
       </c>
       <c r="V60" t="s">
         <v>73</v>
@@ -8770,19 +8770,19 @@
         <v>-89.79999999999927</v>
       </c>
       <c r="Q61">
-        <v>16146.25</v>
+        <v>-69.75</v>
       </c>
       <c r="R61">
-        <v>16153.1</v>
+        <v>-62.899999999999636</v>
       </c>
       <c r="S61">
-        <v>16070.75</v>
+        <v>-145.25</v>
       </c>
       <c r="T61">
-        <v>16107.45</v>
+        <v>-108.54999999999927</v>
       </c>
       <c r="U61">
-        <v>16129.9</v>
+        <v>-86.10000000000036</v>
       </c>
       <c r="V61" t="s">
         <v>70</v>
@@ -8844,19 +8844,19 @@
         <v>-84.45000000000073</v>
       </c>
       <c r="Q62">
-        <v>16156.9</v>
+        <v>-63.70000000000073</v>
       </c>
       <c r="R62">
-        <v>16152.25</v>
+        <v>-68.35000000000036</v>
       </c>
       <c r="S62">
-        <v>16165.6</v>
+        <v>-55</v>
       </c>
       <c r="T62">
-        <v>16193</v>
+        <v>-27.600000000000364</v>
       </c>
       <c r="U62">
-        <v>16234.85</v>
+        <v>14.25</v>
       </c>
       <c r="V62" t="s">
         <v>127</v>
@@ -8918,19 +8918,19 @@
         <v>140.75</v>
       </c>
       <c r="Q63">
-        <v>16204.7</v>
+        <v>71.80000000000109</v>
       </c>
       <c r="R63">
-        <v>16204.3</v>
+        <v>71.39999999999964</v>
       </c>
       <c r="S63">
-        <v>16201.7</v>
+        <v>68.80000000000109</v>
       </c>
       <c r="T63">
-        <v>16188.8</v>
+        <v>55.899999999999636</v>
       </c>
       <c r="U63">
-        <v>16166.15</v>
+        <v>33.25</v>
       </c>
       <c r="V63" t="s">
         <v>28</v>
@@ -8992,19 +8992,19 @@
         <v>123.95000000000073</v>
       </c>
       <c r="Q64">
-        <v>16093.3</v>
+        <v>103.5</v>
       </c>
       <c r="R64">
-        <v>16108.95</v>
+        <v>119.15000000000146</v>
       </c>
       <c r="S64">
-        <v>16123.4</v>
+        <v>133.60000000000036</v>
       </c>
       <c r="T64">
-        <v>16089.1</v>
+        <v>99.30000000000109</v>
       </c>
       <c r="U64">
-        <v>16097.6</v>
+        <v>107.80000000000109</v>
       </c>
       <c r="V64" t="s">
         <v>31</v>
@@ -9066,19 +9066,19 @@
         <v>7.350000000000364</v>
       </c>
       <c r="Q65">
-        <v>15874.4</v>
+        <v>63.54999999999927</v>
       </c>
       <c r="R65">
-        <v>15881.5</v>
+        <v>70.64999999999964</v>
       </c>
       <c r="S65">
-        <v>15970.75</v>
+        <v>159.89999999999964</v>
       </c>
       <c r="T65">
-        <v>15932.15</v>
+        <v>121.29999999999927</v>
       </c>
       <c r="U65">
-        <v>15947.65</v>
+        <v>136.79999999999927</v>
       </c>
       <c r="V65" t="s">
         <v>57</v>
@@ -9140,19 +9140,19 @@
         <v>73.79999999999927</v>
       </c>
       <c r="Q66">
-        <v>15981.15</v>
+        <v>145.79999999999927</v>
       </c>
       <c r="R66">
-        <v>15990.9</v>
+        <v>155.54999999999927</v>
       </c>
       <c r="S66">
-        <v>15981.75</v>
+        <v>146.39999999999964</v>
       </c>
       <c r="T66">
-        <v>15881</v>
+        <v>45.649999999999636</v>
       </c>
       <c r="U66">
-        <v>15870.8</v>
+        <v>35.44999999999891</v>
       </c>
       <c r="V66" t="s">
         <v>134</v>
@@ -9214,19 +9214,19 @@
         <v>-41.54999999999927</v>
       </c>
       <c r="Q67">
-        <v>15674.3</v>
+        <v>-77.75</v>
       </c>
       <c r="R67">
-        <v>15692.85</v>
+        <v>-59.19999999999891</v>
       </c>
       <c r="S67">
-        <v>15790.95</v>
+        <v>38.900000000001455</v>
       </c>
       <c r="T67">
-        <v>15750.25</v>
+        <v>-1.7999999999992724</v>
       </c>
       <c r="U67">
-        <v>15779.45</v>
+        <v>27.400000000001455</v>
       </c>
       <c r="V67" t="s">
         <v>65</v>

--- a/Kite.Console/bin/Debug/net6.0/Result.xlsx
+++ b/Kite.Console/bin/Debug/net6.0/Result.xlsx
@@ -4404,19 +4404,19 @@
         <v>-44.599999999998545</v>
       </c>
       <c r="Q2">
-        <v>-21.099999999998545</v>
+        <v>17310.7</v>
       </c>
       <c r="R2">
-        <v>-68.54999999999927</v>
+        <v>17263.25</v>
       </c>
       <c r="S2">
-        <v>-62.45000000000073</v>
+        <v>17269.35</v>
       </c>
       <c r="T2">
-        <v>-49.45000000000073</v>
+        <v>17282.35</v>
       </c>
       <c r="U2">
-        <v>-35.95000000000073</v>
+        <v>17295.85</v>
       </c>
       <c r="V2" t="s">
         <v>25</v>
@@ -4478,19 +4478,19 @@
         <v>104.95000000000073</v>
       </c>
       <c r="Q3">
-        <v>141.15000000000146</v>
+        <v>17415.45</v>
       </c>
       <c r="R3">
-        <v>134.15000000000146</v>
+        <v>17408.45</v>
       </c>
       <c r="S3">
-        <v>131.70000000000073</v>
+        <v>17406</v>
       </c>
       <c r="T3">
-        <v>102.45000000000073</v>
+        <v>17376.75</v>
       </c>
       <c r="U3">
-        <v>79.40000000000146</v>
+        <v>17353.7</v>
       </c>
       <c r="V3" t="s">
         <v>28</v>
@@ -4552,19 +4552,19 @@
         <v>260.1000000000022</v>
       </c>
       <c r="Q4">
-        <v>358.25</v>
+        <v>17245.6</v>
       </c>
       <c r="R4">
-        <v>342.8000000000029</v>
+        <v>17230.15</v>
       </c>
       <c r="S4">
-        <v>360.0500000000029</v>
+        <v>17247.4</v>
       </c>
       <c r="T4">
-        <v>371.3500000000022</v>
+        <v>17258.7</v>
       </c>
       <c r="U4">
-        <v>372.4500000000007</v>
+        <v>17259.8</v>
       </c>
       <c r="V4" t="s">
         <v>31</v>
@@ -4626,19 +4626,19 @@
         <v>7.75</v>
       </c>
       <c r="Q5">
-        <v>-133</v>
+        <v>16961.35</v>
       </c>
       <c r="R5">
-        <v>-127.59999999999854</v>
+        <v>16966.75</v>
       </c>
       <c r="S5">
-        <v>-72.44999999999709</v>
+        <v>17021.9</v>
       </c>
       <c r="T5">
-        <v>-119.04999999999927</v>
+        <v>16975.3</v>
       </c>
       <c r="U5">
-        <v>-164.04999999999927</v>
+        <v>16930.3</v>
       </c>
       <c r="V5" t="s">
         <v>33</v>
@@ -4700,19 +4700,19 @@
         <v>-20.049999999999272</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>16844.1</v>
       </c>
       <c r="R6">
-        <v>86.70000000000073</v>
+        <v>16904.8</v>
       </c>
       <c r="S6">
-        <v>274.8000000000029</v>
+        <v>17092.9</v>
       </c>
       <c r="T6">
-        <v>321.5</v>
+        <v>17139.6</v>
       </c>
       <c r="U6">
-        <v>352.4500000000007</v>
+        <v>17170.55</v>
       </c>
       <c r="V6" t="s">
         <v>35</v>
@@ -4774,19 +4774,19 @@
         <v>135</v>
       </c>
       <c r="Q7">
-        <v>116.60000000000218</v>
+        <v>16975.2</v>
       </c>
       <c r="R7">
-        <v>84.55000000000291</v>
+        <v>16943.15</v>
       </c>
       <c r="S7">
-        <v>-26.349999999998545</v>
+        <v>16832.25</v>
       </c>
       <c r="T7">
-        <v>-29.44999999999709</v>
+        <v>16829.15</v>
       </c>
       <c r="U7">
-        <v>-19.349999999998545</v>
+        <v>16839.25</v>
       </c>
       <c r="V7" t="s">
         <v>33</v>
@@ -4848,19 +4848,19 @@
         <v>-136.85000000000218</v>
       </c>
       <c r="Q8">
-        <v>-49.85000000000218</v>
+        <v>16957.55</v>
       </c>
       <c r="R8">
-        <v>-64.35000000000218</v>
+        <v>16943.05</v>
       </c>
       <c r="S8">
-        <v>-29.850000000002183</v>
+        <v>16977.55</v>
       </c>
       <c r="T8">
-        <v>-55.30000000000291</v>
+        <v>16952.1</v>
       </c>
       <c r="U8">
-        <v>-91.15000000000146</v>
+        <v>16916.25</v>
       </c>
       <c r="V8" t="s">
         <v>26</v>
@@ -4922,19 +4922,19 @@
         <v>94.60000000000218</v>
       </c>
       <c r="Q9">
-        <v>27.049999999999272</v>
+        <v>17043.35</v>
       </c>
       <c r="R9">
-        <v>31.850000000002183</v>
+        <v>17048.15</v>
       </c>
       <c r="S9">
-        <v>48.04999999999927</v>
+        <v>17064.35</v>
       </c>
       <c r="T9">
-        <v>75</v>
+        <v>17091.3</v>
       </c>
       <c r="U9">
-        <v>12.450000000000728</v>
+        <v>17028.75</v>
       </c>
       <c r="V9" t="s">
         <v>40</v>
@@ -4996,19 +4996,19 @@
         <v>-171.04999999999927</v>
       </c>
       <c r="Q10">
-        <v>-282.6999999999971</v>
+        <v>17044.65</v>
       </c>
       <c r="R10">
-        <v>-310.75</v>
+        <v>17016.6</v>
       </c>
       <c r="S10">
-        <v>-169.64999999999782</v>
+        <v>17157.7</v>
       </c>
       <c r="T10">
-        <v>-239.75</v>
+        <v>17087.6</v>
       </c>
       <c r="U10">
-        <v>-198.75</v>
+        <v>17128.6</v>
       </c>
       <c r="V10" t="s">
         <v>43</v>
@@ -5070,19 +5070,19 @@
         <v>-35.95000000000073</v>
       </c>
       <c r="Q11">
-        <v>-149.79999999999927</v>
+        <v>17480</v>
       </c>
       <c r="R11">
-        <v>-162.64999999999782</v>
+        <v>17467.15</v>
       </c>
       <c r="S11">
-        <v>-236.20000000000073</v>
+        <v>17393.6</v>
       </c>
       <c r="T11">
-        <v>-276.0499999999993</v>
+        <v>17353.75</v>
       </c>
       <c r="U11">
-        <v>-305</v>
+        <v>17324.8</v>
       </c>
       <c r="V11" t="s">
         <v>28</v>
@@ -5144,19 +5144,19 @@
         <v>-108.69999999999709</v>
       </c>
       <c r="Q12">
-        <v>-24.099999999998545</v>
+        <v>17694.25</v>
       </c>
       <c r="R12">
-        <v>-102.69999999999709</v>
+        <v>17615.65</v>
       </c>
       <c r="S12">
-        <v>-125.94999999999709</v>
+        <v>17592.4</v>
       </c>
       <c r="T12">
-        <v>-12.799999999999272</v>
+        <v>17705.55</v>
       </c>
       <c r="U12">
-        <v>-26.25</v>
+        <v>17692.1</v>
       </c>
       <c r="V12" t="s">
         <v>47</v>
@@ -5218,19 +5218,19 @@
         <v>-49.900000000001455</v>
       </c>
       <c r="Q13">
-        <v>-68.40000000000146</v>
+        <v>17747.85</v>
       </c>
       <c r="R13">
-        <v>-5.799999999999272</v>
+        <v>17810.45</v>
       </c>
       <c r="S13">
-        <v>-94</v>
+        <v>17722.25</v>
       </c>
       <c r="T13">
-        <v>-45.349999999998545</v>
+        <v>17770.9</v>
       </c>
       <c r="U13">
-        <v>-52.45000000000073</v>
+        <v>17763.8</v>
       </c>
       <c r="V13" t="s">
         <v>40</v>
@@ -5292,19 +5292,19 @@
         <v>148.15000000000146</v>
       </c>
       <c r="Q14">
-        <v>219.29999999999927</v>
+        <v>17841.55</v>
       </c>
       <c r="R14">
-        <v>242.29999999999927</v>
+        <v>17864.55</v>
       </c>
       <c r="S14">
-        <v>275.59999999999854</v>
+        <v>17897.85</v>
       </c>
       <c r="T14">
-        <v>272.34999999999854</v>
+        <v>17894.6</v>
       </c>
       <c r="U14">
-        <v>256.9500000000007</v>
+        <v>17879.2</v>
       </c>
       <c r="V14" t="s">
         <v>52</v>
@@ -5366,19 +5366,19 @@
         <v>9.80000000000291</v>
       </c>
       <c r="Q15">
-        <v>107.35000000000218</v>
+        <v>17638.2</v>
       </c>
       <c r="R15">
-        <v>112.95000000000073</v>
+        <v>17643.8</v>
       </c>
       <c r="S15">
-        <v>92.15000000000146</v>
+        <v>17623</v>
       </c>
       <c r="T15">
-        <v>110.80000000000291</v>
+        <v>17641.65</v>
       </c>
       <c r="U15">
-        <v>83.65000000000146</v>
+        <v>17614.5</v>
       </c>
       <c r="V15" t="s">
         <v>54</v>
@@ -5440,19 +5440,19 @@
         <v>-80.60000000000218</v>
       </c>
       <c r="Q16">
-        <v>-204.60000000000218</v>
+        <v>17672.8</v>
       </c>
       <c r="R16">
-        <v>-152.20000000000073</v>
+        <v>17725.2</v>
       </c>
       <c r="S16">
-        <v>-228.85000000000218</v>
+        <v>17648.55</v>
       </c>
       <c r="T16">
-        <v>-330.15000000000146</v>
+        <v>17547.25</v>
       </c>
       <c r="U16">
-        <v>-316.90000000000146</v>
+        <v>17560.5</v>
       </c>
       <c r="V16" t="s">
         <v>28</v>
@@ -5514,19 +5514,19 @@
         <v>42.599999999998545</v>
       </c>
       <c r="Q17">
-        <v>-32.849999999998545</v>
+        <v>17970.9</v>
       </c>
       <c r="R17">
-        <v>-60.5</v>
+        <v>17943.25</v>
       </c>
       <c r="S17">
-        <v>-87.34999999999854</v>
+        <v>17916.4</v>
       </c>
       <c r="T17">
-        <v>-106.5</v>
+        <v>17897.25</v>
       </c>
       <c r="U17">
-        <v>-73</v>
+        <v>17930.75</v>
       </c>
       <c r="V17" t="s">
         <v>33</v>
@@ -5588,19 +5588,19 @@
         <v>-298.8999999999978</v>
       </c>
       <c r="Q18">
-        <v>-154.79999999999927</v>
+        <v>17915.25</v>
       </c>
       <c r="R18">
-        <v>-144.59999999999854</v>
+        <v>17925.45</v>
       </c>
       <c r="S18">
-        <v>-36.849999999998545</v>
+        <v>18033.2</v>
       </c>
       <c r="T18">
-        <v>-27.649999999997817</v>
+        <v>18042.4</v>
       </c>
       <c r="U18">
-        <v>14.700000000000728</v>
+        <v>18084.75</v>
       </c>
       <c r="V18" t="s">
         <v>35</v>
@@ -5662,19 +5662,19 @@
         <v>108.10000000000218</v>
       </c>
       <c r="Q19">
-        <v>117.80000000000291</v>
+        <v>18054.15</v>
       </c>
       <c r="R19">
-        <v>100</v>
+        <v>18036.35</v>
       </c>
       <c r="S19">
-        <v>141.60000000000218</v>
+        <v>18077.95</v>
       </c>
       <c r="T19">
-        <v>136</v>
+        <v>18072.35</v>
       </c>
       <c r="U19">
-        <v>136.20000000000073</v>
+        <v>18072.55</v>
       </c>
       <c r="V19" t="s">
         <v>47</v>
@@ -5736,19 +5736,19 @@
         <v>57.5</v>
       </c>
       <c r="Q20">
-        <v>121.40000000000146</v>
+        <v>17954.75</v>
       </c>
       <c r="R20">
-        <v>104.60000000000218</v>
+        <v>17937.95</v>
       </c>
       <c r="S20">
-        <v>116.20000000000073</v>
+        <v>17949.55</v>
       </c>
       <c r="T20">
-        <v>129.5</v>
+        <v>17962.85</v>
       </c>
       <c r="U20">
-        <v>118.45000000000073</v>
+        <v>17951.8</v>
       </c>
       <c r="V20" t="s">
         <v>47</v>
@@ -5810,19 +5810,19 @@
         <v>124.59999999999854</v>
       </c>
       <c r="Q21">
-        <v>102.59999999999854</v>
+        <v>17901.35</v>
       </c>
       <c r="R21">
-        <v>114.15000000000146</v>
+        <v>17912.9</v>
       </c>
       <c r="S21">
-        <v>35.349999999998545</v>
+        <v>17834.1</v>
       </c>
       <c r="T21">
-        <v>45.79999999999927</v>
+        <v>17844.55</v>
       </c>
       <c r="U21">
-        <v>57.20000000000073</v>
+        <v>17855.95</v>
       </c>
       <c r="V21" t="s">
         <v>28</v>
@@ -5884,19 +5884,19 @@
         <v>123.75</v>
       </c>
       <c r="Q22">
-        <v>148</v>
+        <v>17772.4</v>
       </c>
       <c r="R22">
-        <v>138</v>
+        <v>17762.4</v>
       </c>
       <c r="S22">
-        <v>86.79999999999927</v>
+        <v>17711.2</v>
       </c>
       <c r="T22">
-        <v>126.14999999999782</v>
+        <v>17750.55</v>
       </c>
       <c r="U22">
-        <v>146.64999999999782</v>
+        <v>17771.05</v>
       </c>
       <c r="V22" t="s">
         <v>65</v>
@@ -5958,19 +5958,19 @@
         <v>-136.1999999999971</v>
       </c>
       <c r="Q23">
-        <v>-72.34999999999854</v>
+        <v>17583.25</v>
       </c>
       <c r="R23">
-        <v>-77.64999999999782</v>
+        <v>17577.95</v>
       </c>
       <c r="S23">
-        <v>-37.25</v>
+        <v>17618.35</v>
       </c>
       <c r="T23">
-        <v>-20.399999999997817</v>
+        <v>17635.2</v>
       </c>
       <c r="U23">
-        <v>-20.549999999999272</v>
+        <v>17635.05</v>
       </c>
       <c r="V23" t="s">
         <v>68</v>
@@ -6032,19 +6032,19 @@
         <v>29.900000000001455</v>
       </c>
       <c r="Q24">
-        <v>3.25</v>
+        <v>17669.05</v>
       </c>
       <c r="R24">
-        <v>-75.09999999999854</v>
+        <v>17590.7</v>
       </c>
       <c r="S24">
-        <v>33.400000000001455</v>
+        <v>17699.2</v>
       </c>
       <c r="T24">
-        <v>20.900000000001455</v>
+        <v>17686.7</v>
       </c>
       <c r="U24">
-        <v>37.95000000000073</v>
+        <v>17703.75</v>
       </c>
       <c r="V24" t="s">
         <v>28</v>
@@ -6106,19 +6106,19 @@
         <v>7</v>
       </c>
       <c r="Q25">
-        <v>99.14999999999782</v>
+        <v>17638.6</v>
       </c>
       <c r="R25">
-        <v>114.04999999999927</v>
+        <v>17653.5</v>
       </c>
       <c r="S25">
-        <v>124.84999999999854</v>
+        <v>17664.3</v>
       </c>
       <c r="T25">
-        <v>120</v>
+        <v>17659.45</v>
       </c>
       <c r="U25">
-        <v>134.64999999999782</v>
+        <v>17674.1</v>
       </c>
       <c r="V25" t="s">
         <v>45</v>
@@ -6180,19 +6180,19 @@
         <v>55.60000000000218</v>
       </c>
       <c r="Q26">
-        <v>-50.95000000000073</v>
+        <v>17491.85</v>
       </c>
       <c r="R26">
-        <v>-9</v>
+        <v>17533.8</v>
       </c>
       <c r="S26">
-        <v>28.850000000002183</v>
+        <v>17571.65</v>
       </c>
       <c r="T26">
-        <v>65.60000000000218</v>
+        <v>17608.4</v>
       </c>
       <c r="U26">
-        <v>65.20000000000073</v>
+        <v>17608</v>
       </c>
       <c r="V26" t="s">
         <v>28</v>
@@ -6254,19 +6254,19 @@
         <v>-273.59999999999854</v>
       </c>
       <c r="Q27">
-        <v>-131.34999999999854</v>
+        <v>17627.95</v>
       </c>
       <c r="R27">
-        <v>-88</v>
+        <v>17671.3</v>
       </c>
       <c r="S27">
-        <v>-192.20000000000073</v>
+        <v>17567.1</v>
       </c>
       <c r="T27">
-        <v>-272.75</v>
+        <v>17486.55</v>
       </c>
       <c r="U27">
-        <v>-229</v>
+        <v>17530.3</v>
       </c>
       <c r="V27" t="s">
         <v>75</v>
@@ -6328,19 +6328,19 @@
         <v>102.04999999999927</v>
       </c>
       <c r="Q28">
-        <v>158.79999999999927</v>
+        <v>17471.7</v>
       </c>
       <c r="R28">
-        <v>171.9499999999971</v>
+        <v>17484.85</v>
       </c>
       <c r="S28">
-        <v>318.25</v>
+        <v>17631.15</v>
       </c>
       <c r="T28">
-        <v>347.8999999999978</v>
+        <v>17660.8</v>
       </c>
       <c r="U28">
-        <v>377.1499999999978</v>
+        <v>17690.05</v>
       </c>
       <c r="V28" t="s">
         <v>57</v>
@@ -6402,19 +6402,19 @@
         <v>-370.25</v>
       </c>
       <c r="Q29">
-        <v>-243.20000000000073</v>
+        <v>17315.7</v>
       </c>
       <c r="R29">
-        <v>-248</v>
+        <v>17310.9</v>
       </c>
       <c r="S29">
-        <v>-234.20000000000073</v>
+        <v>17324.7</v>
       </c>
       <c r="T29">
-        <v>-204.5500000000029</v>
+        <v>17354.35</v>
       </c>
       <c r="U29">
-        <v>-233.5500000000029</v>
+        <v>17325.35</v>
       </c>
       <c r="V29" t="s">
         <v>79</v>
@@ -6476,19 +6476,19 @@
         <v>96.84999999999854</v>
       </c>
       <c r="Q30">
-        <v>114.95000000000073</v>
+        <v>17637.4</v>
       </c>
       <c r="R30">
-        <v>102.09999999999854</v>
+        <v>17624.55</v>
       </c>
       <c r="S30">
-        <v>82.34999999999854</v>
+        <v>17604.8</v>
       </c>
       <c r="T30">
-        <v>85.5</v>
+        <v>17607.95</v>
       </c>
       <c r="U30">
-        <v>67.70000000000073</v>
+        <v>17590.15</v>
       </c>
       <c r="V30" t="s">
         <v>43</v>
@@ -6550,19 +6550,19 @@
         <v>74.04999999999927</v>
       </c>
       <c r="Q31">
-        <v>105.89999999999782</v>
+        <v>17710.85</v>
       </c>
       <c r="R31">
-        <v>82.34999999999854</v>
+        <v>17687.3</v>
       </c>
       <c r="S31">
-        <v>107.09999999999854</v>
+        <v>17712.05</v>
       </c>
       <c r="T31">
-        <v>91.04999999999927</v>
+        <v>17696</v>
       </c>
       <c r="U31">
-        <v>59.349999999998545</v>
+        <v>17664.3</v>
       </c>
       <c r="V31" t="s">
         <v>66</v>
@@ -6624,19 +6624,19 @@
         <v>-52.04999999999927</v>
       </c>
       <c r="Q32">
-        <v>-13.849999999998545</v>
+        <v>17563.65</v>
       </c>
       <c r="R32">
-        <v>2.099999999998545</v>
+        <v>17579.6</v>
       </c>
       <c r="S32">
-        <v>-36.099999999998545</v>
+        <v>17541.4</v>
       </c>
       <c r="T32">
-        <v>-5.299999999999272</v>
+        <v>17572.2</v>
       </c>
       <c r="U32">
-        <v>-6.299999999999272</v>
+        <v>17571.2</v>
       </c>
       <c r="V32" t="s">
         <v>65</v>
@@ -6698,19 +6698,19 @@
         <v>-133.35000000000218</v>
       </c>
       <c r="Q33">
-        <v>94.09999999999854</v>
+        <v>17584.8</v>
       </c>
       <c r="R33">
-        <v>9.700000000000728</v>
+        <v>17500.4</v>
       </c>
       <c r="S33">
-        <v>29.849999999998545</v>
+        <v>17520.55</v>
       </c>
       <c r="T33">
-        <v>78.45000000000073</v>
+        <v>17569.15</v>
       </c>
       <c r="U33">
-        <v>83.09999999999854</v>
+        <v>17573.8</v>
       </c>
       <c r="V33" t="s">
         <v>29</v>
@@ -6772,19 +6772,19 @@
         <v>-75.54999999999927</v>
       </c>
       <c r="Q34">
-        <v>-166.75</v>
+        <v>17591.7</v>
       </c>
       <c r="R34">
-        <v>-174.25</v>
+        <v>17584.2</v>
       </c>
       <c r="S34">
-        <v>-214.79999999999927</v>
+        <v>17543.65</v>
       </c>
       <c r="T34">
-        <v>-227.95000000000073</v>
+        <v>17530.5</v>
       </c>
       <c r="U34">
-        <v>-199.60000000000218</v>
+        <v>17558.85</v>
       </c>
       <c r="V34" t="s">
         <v>28</v>
@@ -6846,19 +6846,19 @@
         <v>10.049999999999272</v>
       </c>
       <c r="Q35">
-        <v>-4.950000000000728</v>
+        <v>17951.55</v>
       </c>
       <c r="R35">
-        <v>1.5999999999985448</v>
+        <v>17958.1</v>
       </c>
       <c r="S35">
-        <v>-159.54999999999927</v>
+        <v>17796.95</v>
       </c>
       <c r="T35">
-        <v>-232.09999999999854</v>
+        <v>17724.4</v>
       </c>
       <c r="U35">
-        <v>-158.29999999999927</v>
+        <v>17798.2</v>
       </c>
       <c r="V35" t="s">
         <v>28</v>
@@ -6920,19 +6920,19 @@
         <v>-45.599999999998545</v>
       </c>
       <c r="Q36">
-        <v>5.849999999998545</v>
+        <v>17950.1</v>
       </c>
       <c r="R36">
-        <v>-51.599999999998545</v>
+        <v>17892.65</v>
       </c>
       <c r="S36">
-        <v>-50.599999999998545</v>
+        <v>17893.65</v>
       </c>
       <c r="T36">
-        <v>-52.95000000000073</v>
+        <v>17891.3</v>
       </c>
       <c r="U36">
-        <v>-28.849999999998545</v>
+        <v>17915.4</v>
       </c>
       <c r="V36" t="s">
         <v>29</v>
@@ -6994,19 +6994,19 @@
         <v>42.900000000001455</v>
       </c>
       <c r="Q37">
-        <v>78.04999999999927</v>
+        <v>17903.3</v>
       </c>
       <c r="R37">
-        <v>93.65000000000146</v>
+        <v>17918.9</v>
       </c>
       <c r="S37">
-        <v>109.34999999999854</v>
+        <v>17934.6</v>
       </c>
       <c r="T37">
-        <v>94.90000000000146</v>
+        <v>17920.15</v>
       </c>
       <c r="U37">
-        <v>112.45000000000073</v>
+        <v>17937.7</v>
       </c>
       <c r="V37" t="s">
         <v>81</v>
@@ -7068,19 +7068,19 @@
         <v>99.04999999999927</v>
       </c>
       <c r="Q38">
-        <v>131.54999999999927</v>
+        <v>17829.7</v>
       </c>
       <c r="R38">
-        <v>123.54999999999927</v>
+        <v>17821.7</v>
       </c>
       <c r="S38">
-        <v>106.89999999999782</v>
+        <v>17805.05</v>
       </c>
       <c r="T38">
-        <v>95.14999999999782</v>
+        <v>17793.3</v>
       </c>
       <c r="U38">
-        <v>111.25</v>
+        <v>17809.4</v>
       </c>
       <c r="V38" t="s">
         <v>94</v>
@@ -7142,19 +7142,19 @@
         <v>0.6500000000014552</v>
       </c>
       <c r="Q39">
-        <v>5.5</v>
+        <v>17664.5</v>
       </c>
       <c r="R39">
-        <v>13.25</v>
+        <v>17672.25</v>
       </c>
       <c r="S39">
-        <v>45.45000000000073</v>
+        <v>17704.45</v>
       </c>
       <c r="T39">
-        <v>48.20000000000073</v>
+        <v>17707.2</v>
       </c>
       <c r="U39">
-        <v>30.349999999998545</v>
+        <v>17689.35</v>
       </c>
       <c r="V39" t="s">
         <v>79</v>
@@ -7216,19 +7216,19 @@
         <v>176.90000000000146</v>
       </c>
       <c r="Q40">
-        <v>149.04999999999927</v>
+        <v>17683.8</v>
       </c>
       <c r="R40">
-        <v>156.59999999999854</v>
+        <v>17691.35</v>
       </c>
       <c r="S40">
-        <v>138.70000000000073</v>
+        <v>17673.45</v>
       </c>
       <c r="T40">
-        <v>123.34999999999854</v>
+        <v>17658.1</v>
       </c>
       <c r="U40">
-        <v>131.59999999999854</v>
+        <v>17666.35</v>
       </c>
       <c r="V40" t="s">
         <v>28</v>
@@ -7290,19 +7290,19 @@
         <v>41</v>
       </c>
       <c r="Q41">
-        <v>-72.59999999999854</v>
+        <v>17452.5</v>
       </c>
       <c r="R41">
-        <v>-0.2999999999992724</v>
+        <v>17524.8</v>
       </c>
       <c r="S41">
-        <v>-14.649999999997817</v>
+        <v>17510.45</v>
       </c>
       <c r="T41">
-        <v>-14.5</v>
+        <v>17510.6</v>
       </c>
       <c r="U41">
-        <v>7.350000000002183</v>
+        <v>17532.45</v>
       </c>
       <c r="V41" t="s">
         <v>28</v>
@@ -7364,19 +7364,19 @@
         <v>4</v>
       </c>
       <c r="Q42">
-        <v>30.299999999999272</v>
+        <v>17427.8</v>
       </c>
       <c r="R42">
-        <v>57.79999999999927</v>
+        <v>17455.3</v>
       </c>
       <c r="S42">
-        <v>133.04999999999927</v>
+        <v>17530.55</v>
       </c>
       <c r="T42">
-        <v>131.34999999999854</v>
+        <v>17528.85</v>
       </c>
       <c r="U42">
-        <v>125.95000000000073</v>
+        <v>17523.45</v>
       </c>
       <c r="V42" t="s">
         <v>100</v>
@@ -7438,19 +7438,19 @@
         <v>41.650000000001455</v>
       </c>
       <c r="Q43">
-        <v>46.150000000001455</v>
+        <v>17428.15</v>
       </c>
       <c r="R43">
-        <v>69.40000000000146</v>
+        <v>17451.4</v>
       </c>
       <c r="S43">
-        <v>4.599999999998545</v>
+        <v>17386.6</v>
       </c>
       <c r="T43">
-        <v>29.950000000000728</v>
+        <v>17411.95</v>
       </c>
       <c r="U43">
-        <v>-16.450000000000728</v>
+        <v>17365.55</v>
       </c>
       <c r="V43" t="s">
         <v>41</v>
@@ -7512,19 +7512,19 @@
         <v>74.94999999999709</v>
       </c>
       <c r="Q44">
-        <v>71.54999999999927</v>
+        <v>17459.7</v>
       </c>
       <c r="R44">
-        <v>34.54999999999927</v>
+        <v>17422.7</v>
       </c>
       <c r="S44">
-        <v>-52.85000000000218</v>
+        <v>17335.3</v>
       </c>
       <c r="T44">
-        <v>-97.30000000000291</v>
+        <v>17290.85</v>
       </c>
       <c r="U44">
-        <v>-99.15000000000146</v>
+        <v>17289</v>
       </c>
       <c r="V44" t="s">
         <v>28</v>
@@ -7586,19 +7586,19 @@
         <v>3.7999999999992724</v>
       </c>
       <c r="Q45">
-        <v>-36.04999999999927</v>
+        <v>17309.4</v>
       </c>
       <c r="R45">
-        <v>-82</v>
+        <v>17263.45</v>
       </c>
       <c r="S45">
-        <v>-54.25</v>
+        <v>17291.2</v>
       </c>
       <c r="T45">
-        <v>-36.5</v>
+        <v>17308.95</v>
       </c>
       <c r="U45">
-        <v>-30.549999999999272</v>
+        <v>17314.9</v>
       </c>
       <c r="V45" t="s">
         <v>29</v>
@@ -7660,19 +7660,19 @@
         <v>-29.899999999997817</v>
       </c>
       <c r="Q46">
-        <v>-97.59999999999854</v>
+        <v>17242.45</v>
       </c>
       <c r="R46">
-        <v>-85.25</v>
+        <v>17254.8</v>
       </c>
       <c r="S46">
-        <v>-77.70000000000073</v>
+        <v>17262.35</v>
       </c>
       <c r="T46">
-        <v>-9.450000000000728</v>
+        <v>17330.6</v>
       </c>
       <c r="U46">
-        <v>7.150000000001455</v>
+        <v>17347.2</v>
       </c>
       <c r="V46" t="s">
         <v>107</v>
@@ -7734,19 +7734,19 @@
         <v>84.95000000000073</v>
       </c>
       <c r="Q47">
-        <v>105.79999999999927</v>
+        <v>17264.05</v>
       </c>
       <c r="R47">
-        <v>109.15000000000146</v>
+        <v>17267.4</v>
       </c>
       <c r="S47">
-        <v>137.59999999999854</v>
+        <v>17295.85</v>
       </c>
       <c r="T47">
-        <v>156.29999999999927</v>
+        <v>17314.55</v>
       </c>
       <c r="U47">
-        <v>151.79999999999927</v>
+        <v>17310.05</v>
       </c>
       <c r="V47" t="s">
         <v>31</v>
@@ -7808,19 +7808,19 @@
         <v>149.90000000000146</v>
       </c>
       <c r="Q48">
-        <v>199.3000000000029</v>
+        <v>17128.9</v>
       </c>
       <c r="R48">
-        <v>92.20000000000073</v>
+        <v>17021.8</v>
       </c>
       <c r="S48">
-        <v>174.8000000000029</v>
+        <v>17104.4</v>
       </c>
       <c r="T48">
-        <v>147.25</v>
+        <v>17076.85</v>
       </c>
       <c r="U48">
-        <v>165.65000000000146</v>
+        <v>17095.25</v>
       </c>
       <c r="V48" t="s">
         <v>83</v>
@@ -7882,19 +7882,19 @@
         <v>133.04999999999927</v>
       </c>
       <c r="Q49">
-        <v>165.65000000000146</v>
+        <v>16807.45</v>
       </c>
       <c r="R49">
-        <v>206.60000000000218</v>
+        <v>16848.4</v>
       </c>
       <c r="S49">
-        <v>250.79999999999927</v>
+        <v>16892.6</v>
       </c>
       <c r="T49">
-        <v>267.2000000000007</v>
+        <v>16909</v>
       </c>
       <c r="U49">
-        <v>279.8500000000022</v>
+        <v>16921.65</v>
       </c>
       <c r="V49" t="s">
         <v>65</v>
@@ -7956,19 +7956,19 @@
         <v>-8.5</v>
       </c>
       <c r="Q50">
-        <v>27.450000000000728</v>
+        <v>16511.3</v>
       </c>
       <c r="R50">
-        <v>41.400000000001455</v>
+        <v>16525.25</v>
       </c>
       <c r="S50">
-        <v>115.80000000000291</v>
+        <v>16599.65</v>
       </c>
       <c r="T50">
-        <v>111.70000000000073</v>
+        <v>16595.55</v>
       </c>
       <c r="U50">
-        <v>115.30000000000291</v>
+        <v>16599.15</v>
       </c>
       <c r="V50" t="s">
         <v>57</v>
@@ -8030,19 +8030,19 @@
         <v>1.9000000000014552</v>
       </c>
       <c r="Q51">
-        <v>-110.15000000000146</v>
+        <v>16520.85</v>
       </c>
       <c r="R51">
-        <v>-125.04999999999927</v>
+        <v>16505.95</v>
       </c>
       <c r="S51">
-        <v>-88.40000000000146</v>
+        <v>16542.6</v>
       </c>
       <c r="T51">
-        <v>-113.34999999999854</v>
+        <v>16517.65</v>
       </c>
       <c r="U51">
-        <v>-113.5</v>
+        <v>16517.5</v>
       </c>
       <c r="V51" t="s">
         <v>28</v>
@@ -8104,19 +8104,19 @@
         <v>-56.900000000001455</v>
       </c>
       <c r="Q52">
-        <v>-128.60000000000218</v>
+        <v>16590.85</v>
       </c>
       <c r="R52">
-        <v>-114.60000000000218</v>
+        <v>16604.85</v>
       </c>
       <c r="S52">
-        <v>-124.95000000000073</v>
+        <v>16594.5</v>
       </c>
       <c r="T52">
-        <v>-93.95000000000073</v>
+        <v>16625.5</v>
       </c>
       <c r="U52">
-        <v>-40.29999999999927</v>
+        <v>16679.15</v>
       </c>
       <c r="V52" t="s">
         <v>33</v>
@@ -8178,19 +8178,19 @@
         <v>56</v>
       </c>
       <c r="Q53">
-        <v>30.900000000001455</v>
+        <v>16636.15</v>
       </c>
       <c r="R53">
-        <v>46.900000000001455</v>
+        <v>16652.15</v>
       </c>
       <c r="S53">
-        <v>78.15000000000146</v>
+        <v>16683.4</v>
       </c>
       <c r="T53">
-        <v>115.59999999999854</v>
+        <v>16720.85</v>
       </c>
       <c r="U53">
-        <v>136.5</v>
+        <v>16741.75</v>
       </c>
       <c r="V53" t="s">
         <v>45</v>
@@ -8252,19 +8252,19 @@
         <v>2.7000000000007276</v>
       </c>
       <c r="Q54">
-        <v>44.95000000000073</v>
+        <v>16565.8</v>
       </c>
       <c r="R54">
-        <v>38.95000000000073</v>
+        <v>16559.8</v>
       </c>
       <c r="S54">
-        <v>27.30000000000291</v>
+        <v>16548.15</v>
       </c>
       <c r="T54">
-        <v>37</v>
+        <v>16557.85</v>
       </c>
       <c r="U54">
-        <v>65</v>
+        <v>16585.85</v>
       </c>
       <c r="V54" t="s">
         <v>29</v>
@@ -8326,19 +8326,19 @@
         <v>222.25</v>
       </c>
       <c r="Q55">
-        <v>187.25</v>
+        <v>16527.8</v>
       </c>
       <c r="R55">
-        <v>198.70000000000073</v>
+        <v>16539.25</v>
       </c>
       <c r="S55">
-        <v>224.35000000000218</v>
+        <v>16564.9</v>
       </c>
       <c r="T55">
-        <v>219.90000000000146</v>
+        <v>16560.45</v>
       </c>
       <c r="U55">
-        <v>187.10000000000218</v>
+        <v>16527.65</v>
       </c>
       <c r="V55" t="s">
         <v>48</v>
@@ -8400,19 +8400,19 @@
         <v>-91.45000000000073</v>
       </c>
       <c r="Q56">
-        <v>-0.6000000000003638</v>
+        <v>16277.9</v>
       </c>
       <c r="R56">
-        <v>9.700000000000728</v>
+        <v>16288.2</v>
       </c>
       <c r="S56">
-        <v>16.299999999999272</v>
+        <v>16294.8</v>
       </c>
       <c r="T56">
-        <v>33.100000000000364</v>
+        <v>16311.6</v>
       </c>
       <c r="U56">
-        <v>43.45000000000073</v>
+        <v>16321.95</v>
       </c>
       <c r="V56" t="s">
         <v>65</v>
@@ -8474,19 +8474,19 @@
         <v>102.19999999999891</v>
       </c>
       <c r="Q57">
-        <v>120.14999999999964</v>
+        <v>16169.35</v>
       </c>
       <c r="R57">
-        <v>128.84999999999854</v>
+        <v>16178.05</v>
       </c>
       <c r="S57">
-        <v>173.9499999999989</v>
+        <v>16223.15</v>
       </c>
       <c r="T57">
-        <v>179.1999999999989</v>
+        <v>16228.4</v>
       </c>
       <c r="U57">
-        <v>188.1999999999989</v>
+        <v>16237.4</v>
       </c>
       <c r="V57" t="s">
         <v>57</v>
@@ -8548,19 +8548,19 @@
         <v>72.14999999999964</v>
       </c>
       <c r="Q58">
-        <v>29.30000000000109</v>
+        <v>15967.95</v>
       </c>
       <c r="R58">
-        <v>38.20000000000073</v>
+        <v>15976.85</v>
       </c>
       <c r="S58">
-        <v>25.5</v>
+        <v>15964.15</v>
       </c>
       <c r="T58">
-        <v>23.700000000000728</v>
+        <v>15962.35</v>
       </c>
       <c r="U58">
-        <v>63.149999999999636</v>
+        <v>16001.8</v>
       </c>
       <c r="V58" t="s">
         <v>83</v>
@@ -8622,19 +8622,19 @@
         <v>52.20000000000073</v>
       </c>
       <c r="Q59">
-        <v>97.39999999999964</v>
+        <v>16064.05</v>
       </c>
       <c r="R59">
-        <v>64.45000000000073</v>
+        <v>16031.1</v>
       </c>
       <c r="S59">
-        <v>5</v>
+        <v>15971.65</v>
       </c>
       <c r="T59">
-        <v>-66.29999999999927</v>
+        <v>15900.35</v>
       </c>
       <c r="U59">
-        <v>-94.69999999999891</v>
+        <v>15871.95</v>
       </c>
       <c r="V59" t="s">
         <v>123</v>
@@ -8696,19 +8696,19 @@
         <v>69.90000000000146</v>
       </c>
       <c r="Q60">
-        <v>57.900000000001455</v>
+        <v>16116.2</v>
       </c>
       <c r="R60">
-        <v>23.30000000000109</v>
+        <v>16081.6</v>
       </c>
       <c r="S60">
-        <v>-41.399999999999636</v>
+        <v>16016.9</v>
       </c>
       <c r="T60">
-        <v>-61.44999999999891</v>
+        <v>15996.85</v>
       </c>
       <c r="U60">
-        <v>-60.599999999998545</v>
+        <v>15997.7</v>
       </c>
       <c r="V60" t="s">
         <v>73</v>
@@ -8770,19 +8770,19 @@
         <v>-89.79999999999927</v>
       </c>
       <c r="Q61">
-        <v>-69.75</v>
+        <v>16146.25</v>
       </c>
       <c r="R61">
-        <v>-62.899999999999636</v>
+        <v>16153.1</v>
       </c>
       <c r="S61">
-        <v>-145.25</v>
+        <v>16070.75</v>
       </c>
       <c r="T61">
-        <v>-108.54999999999927</v>
+        <v>16107.45</v>
       </c>
       <c r="U61">
-        <v>-86.10000000000036</v>
+        <v>16129.9</v>
       </c>
       <c r="V61" t="s">
         <v>70</v>
@@ -8844,19 +8844,19 @@
         <v>-84.45000000000073</v>
       </c>
       <c r="Q62">
-        <v>-63.70000000000073</v>
+        <v>16156.9</v>
       </c>
       <c r="R62">
-        <v>-68.35000000000036</v>
+        <v>16152.25</v>
       </c>
       <c r="S62">
-        <v>-55</v>
+        <v>16165.6</v>
       </c>
       <c r="T62">
-        <v>-27.600000000000364</v>
+        <v>16193</v>
       </c>
       <c r="U62">
-        <v>14.25</v>
+        <v>16234.85</v>
       </c>
       <c r="V62" t="s">
         <v>127</v>
@@ -8918,19 +8918,19 @@
         <v>140.75</v>
       </c>
       <c r="Q63">
-        <v>71.80000000000109</v>
+        <v>16204.7</v>
       </c>
       <c r="R63">
-        <v>71.39999999999964</v>
+        <v>16204.3</v>
       </c>
       <c r="S63">
-        <v>68.80000000000109</v>
+        <v>16201.7</v>
       </c>
       <c r="T63">
-        <v>55.899999999999636</v>
+        <v>16188.8</v>
       </c>
       <c r="U63">
-        <v>33.25</v>
+        <v>16166.15</v>
       </c>
       <c r="V63" t="s">
         <v>28</v>
@@ -8992,19 +8992,19 @@
         <v>123.95000000000073</v>
       </c>
       <c r="Q64">
-        <v>103.5</v>
+        <v>16093.3</v>
       </c>
       <c r="R64">
-        <v>119.15000000000146</v>
+        <v>16108.95</v>
       </c>
       <c r="S64">
-        <v>133.60000000000036</v>
+        <v>16123.4</v>
       </c>
       <c r="T64">
-        <v>99.30000000000109</v>
+        <v>16089.1</v>
       </c>
       <c r="U64">
-        <v>107.80000000000109</v>
+        <v>16097.6</v>
       </c>
       <c r="V64" t="s">
         <v>31</v>
@@ -9066,19 +9066,19 @@
         <v>7.350000000000364</v>
       </c>
       <c r="Q65">
-        <v>63.54999999999927</v>
+        <v>15874.4</v>
       </c>
       <c r="R65">
-        <v>70.64999999999964</v>
+        <v>15881.5</v>
       </c>
       <c r="S65">
-        <v>159.89999999999964</v>
+        <v>15970.75</v>
       </c>
       <c r="T65">
-        <v>121.29999999999927</v>
+        <v>15932.15</v>
       </c>
       <c r="U65">
-        <v>136.79999999999927</v>
+        <v>15947.65</v>
       </c>
       <c r="V65" t="s">
         <v>57</v>
@@ -9140,19 +9140,19 @@
         <v>73.79999999999927</v>
       </c>
       <c r="Q66">
-        <v>145.79999999999927</v>
+        <v>15981.15</v>
       </c>
       <c r="R66">
-        <v>155.54999999999927</v>
+        <v>15990.9</v>
       </c>
       <c r="S66">
-        <v>146.39999999999964</v>
+        <v>15981.75</v>
       </c>
       <c r="T66">
-        <v>45.649999999999636</v>
+        <v>15881</v>
       </c>
       <c r="U66">
-        <v>35.44999999999891</v>
+        <v>15870.8</v>
       </c>
       <c r="V66" t="s">
         <v>134</v>
@@ -9214,19 +9214,19 @@
         <v>-41.54999999999927</v>
       </c>
       <c r="Q67">
-        <v>-77.75</v>
+        <v>15674.3</v>
       </c>
       <c r="R67">
-        <v>-59.19999999999891</v>
+        <v>15692.85</v>
       </c>
       <c r="S67">
-        <v>38.900000000001455</v>
+        <v>15790.95</v>
       </c>
       <c r="T67">
-        <v>-1.7999999999992724</v>
+        <v>15750.25</v>
       </c>
       <c r="U67">
-        <v>27.400000000001455</v>
+        <v>15779.45</v>
       </c>
       <c r="V67" t="s">
         <v>65</v>
